--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_7_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_7_32.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1545964.909699876</v>
+        <v>1611007.067138812</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13236035.67526077</v>
+        <v>11843801.51954497</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1763776.908577129</v>
+        <v>612367.9462114755</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6874281.658962572</v>
+        <v>7268400.369221364</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
         <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>21.71717045362101</v>
+        <v>275.57660448643</v>
       </c>
       <c r="F2" t="n">
         <v>20.87293999249374</v>
@@ -674,10 +676,10 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>21.53901099707014</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
@@ -716,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
@@ -725,7 +727,7 @@
         <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="3">
@@ -814,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>54.7466794071333</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -868,10 +870,10 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>62.71257041253195</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>38.16966267754562</v>
       </c>
       <c r="C5" t="n">
         <v>22.63172268683286</v>
@@ -905,7 +907,7 @@
         <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
         <v>400.2956717864458</v>
@@ -914,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>81.48697791125825</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1054,25 +1056,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,22 +1104,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>231.6761142478714</v>
+        <v>188.6126445545042</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -1145,7 +1147,7 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1187,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>81.48697791125802</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>49.49512077555119</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1291,25 +1293,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,16 +1341,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>92.91694584241772</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>259.2830179210824</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1367,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
         <v>421.717170453621</v>
@@ -1421,7 +1423,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>8.21611653230063</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
         <v>255.7713603095518</v>
@@ -1430,13 +1432,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>392.4274362026577</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
@@ -1546,7 +1548,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>241.519198276654</v>
       </c>
       <c r="V13" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1619,7 +1621,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
         <v>294.8896947407055</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>68.09540003762595</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>392.4274362026577</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1762,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
@@ -1813,16 +1815,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>89.0301804312094</v>
+        <v>224.2501910080086</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1850,7 +1852,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453622</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
         <v>420.8729399924937</v>
@@ -2005,10 +2007,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
@@ -2017,10 +2019,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>19.85902767342925</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>20.30587612622681</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
@@ -2141,7 +2143,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>392.4274362026577</v>
       </c>
       <c r="X20" t="n">
         <v>407.6027988439302</v>
@@ -2242,19 +2244,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>51.58543740429501</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2290,7 +2292,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
@@ -2299,7 +2301,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>90.41020405525629</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
@@ -2476,25 +2478,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>114.0767014514083</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,7 +2532,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>184.900276134937</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
@@ -2539,10 +2541,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
@@ -2719,19 +2721,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>23.05269102310066</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
         <v>168.4336970060565</v>
@@ -2767,10 +2769,10 @@
         <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>108.5787138564741</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
@@ -2953,22 +2955,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>23.68504153343146</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3007,13 +3009,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>102.0914177575522</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3083,7 +3085,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U32" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7713603095521</v>
       </c>
       <c r="V32" t="n">
         <v>353.914520725013</v>
@@ -3187,7 +3189,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
@@ -3202,7 +3204,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
         <v>98.77088257712678</v>
@@ -3238,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>202.6488653463697</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>7.208108397807436</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -3427,19 +3429,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>9.919095082966631</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>10.42070586797278</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T38" t="n">
         <v>218.7163152458132</v>
@@ -3664,7 +3666,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
@@ -3676,7 +3678,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>98.77088257712678</v>
@@ -3706,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>19.13171203300003</v>
       </c>
       <c r="S40" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>218.7757544134946</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3755,10 +3757,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>207.0971796396582</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>17.94867016336745</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3952,16 +3954,16 @@
         <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0.3483355295592605</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3977,7 +3979,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>24.63251967185126</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
@@ -3989,7 +3991,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
         <v>294.8896947407055</v>
@@ -4028,16 +4030,16 @@
         <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458144</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
@@ -4141,16 +4143,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>160.9877840950855</v>
       </c>
       <c r="F46" t="n">
-        <v>70.02530240072177</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
         <v>98.77088257712678</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>168.4336970060565</v>
@@ -4189,10 +4191,10 @@
         <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>441.9684624244821</v>
+        <v>784.5977247459055</v>
       </c>
       <c r="C2" t="n">
-        <v>419.1081364781863</v>
+        <v>761.7373987996097</v>
       </c>
       <c r="D2" t="n">
-        <v>399.8559197035906</v>
+        <v>338.4447779846099</v>
       </c>
       <c r="E2" t="n">
-        <v>377.9193838918522</v>
+        <v>60.0845714326604</v>
       </c>
       <c r="F2" t="n">
-        <v>356.8356061216566</v>
+        <v>39.00079366246469</v>
       </c>
       <c r="G2" t="n">
-        <v>356.5369477515092</v>
+        <v>38.70213529231739</v>
       </c>
       <c r="H2" t="n">
-        <v>58.66856922554405</v>
+        <v>38.70213529231739</v>
       </c>
       <c r="I2" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231739</v>
       </c>
       <c r="J2" t="n">
-        <v>399.5154512777223</v>
+        <v>401.3055941092129</v>
       </c>
       <c r="K2" t="n">
-        <v>856.3013579804531</v>
+        <v>880.2445183516406</v>
       </c>
       <c r="L2" t="n">
-        <v>1313.087264683184</v>
+        <v>880.2445183516406</v>
       </c>
       <c r="M2" t="n">
-        <v>1313.087264683184</v>
+        <v>977.2289161310141</v>
       </c>
       <c r="N2" t="n">
-        <v>1388.813716338606</v>
+        <v>1456.167840373442</v>
       </c>
       <c r="O2" t="n">
-        <v>1388.813716338606</v>
+        <v>1935.106764615869</v>
       </c>
       <c r="P2" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615869</v>
       </c>
       <c r="Q2" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615869</v>
       </c>
       <c r="R2" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615869</v>
       </c>
       <c r="S2" t="n">
-        <v>1845.599623041337</v>
+        <v>1830.73947048901</v>
       </c>
       <c r="T2" t="n">
-        <v>1624.67405208597</v>
+        <v>1609.813899533643</v>
       </c>
       <c r="U2" t="n">
-        <v>1624.67405208597</v>
+        <v>1609.813899533643</v>
       </c>
       <c r="V2" t="n">
-        <v>1267.18463721222</v>
+        <v>1609.813899533643</v>
       </c>
       <c r="W2" t="n">
-        <v>870.7932875125664</v>
+        <v>1213.42254983399</v>
       </c>
       <c r="X2" t="n">
-        <v>863.1136927207177</v>
+        <v>1205.742955042141</v>
       </c>
       <c r="Y2" t="n">
-        <v>457.776422675608</v>
+        <v>1204.446089037436</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.0354834922822</v>
+        <v>605.8256263237727</v>
       </c>
       <c r="C3" t="n">
-        <v>486.529580009787</v>
+        <v>488.3197228412774</v>
       </c>
       <c r="D3" t="n">
-        <v>382.6896215250719</v>
+        <v>384.4797643565624</v>
       </c>
       <c r="E3" t="n">
-        <v>277.9876877980091</v>
+        <v>279.7778306294996</v>
       </c>
       <c r="F3" t="n">
-        <v>184.3418574809132</v>
+        <v>186.1320003124038</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851708</v>
+        <v>92.07822853000781</v>
       </c>
       <c r="H3" t="n">
-        <v>36.9119924608267</v>
+        <v>38.70213529231739</v>
       </c>
       <c r="I3" t="n">
-        <v>44.35863542273854</v>
+        <v>46.14877825422923</v>
       </c>
       <c r="J3" t="n">
-        <v>44.35863542273854</v>
+        <v>46.14877825422923</v>
       </c>
       <c r="K3" t="n">
-        <v>501.1445421254694</v>
+        <v>410.5729931455442</v>
       </c>
       <c r="L3" t="n">
-        <v>957.9304488282003</v>
+        <v>889.5119173879718</v>
       </c>
       <c r="M3" t="n">
-        <v>1414.716355530931</v>
+        <v>1368.4508416304</v>
       </c>
       <c r="N3" t="n">
-        <v>1414.716355530931</v>
+        <v>1368.4508416304</v>
       </c>
       <c r="O3" t="n">
-        <v>1763.580312956634</v>
+        <v>1368.4508416304</v>
       </c>
       <c r="P3" t="n">
-        <v>1763.580312956634</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="Q3" t="n">
-        <v>1763.580312956634</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="R3" t="n">
-        <v>1845.599623041337</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="S3" t="n">
-        <v>1764.275375602591</v>
+        <v>1766.065518434082</v>
       </c>
       <c r="T3" t="n">
-        <v>1622.39543990027</v>
+        <v>1624.18558273176</v>
       </c>
       <c r="U3" t="n">
-        <v>1437.627243819906</v>
+        <v>1439.417386651397</v>
       </c>
       <c r="V3" t="n">
-        <v>1232.654104959172</v>
+        <v>1234.444247790663</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.13272779239</v>
+        <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>872.6553815590526</v>
+        <v>874.445524390543</v>
       </c>
       <c r="Y3" t="n">
-        <v>732.9624929123449</v>
+        <v>734.7526357438354</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>804.324283372134</v>
+        <v>503.8236179184764</v>
       </c>
       <c r="C4" t="n">
-        <v>804.324283372134</v>
+        <v>448.5239417496549</v>
       </c>
       <c r="D4" t="n">
-        <v>641.0075104989047</v>
+        <v>448.5239417496549</v>
       </c>
       <c r="E4" t="n">
-        <v>474.7993046517582</v>
+        <v>448.5239417496549</v>
       </c>
       <c r="F4" t="n">
-        <v>302.9375304263186</v>
+        <v>448.5239417496549</v>
       </c>
       <c r="G4" t="n">
-        <v>136.6805607205508</v>
+        <v>282.266972043887</v>
       </c>
       <c r="H4" t="n">
-        <v>136.6805607205508</v>
+        <v>138.4707035520414</v>
       </c>
       <c r="I4" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231739</v>
       </c>
       <c r="J4" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231739</v>
       </c>
       <c r="K4" t="n">
-        <v>263.4395936666639</v>
+        <v>265.2297364981546</v>
       </c>
       <c r="L4" t="n">
-        <v>618.1289149610848</v>
+        <v>619.9190577925754</v>
       </c>
       <c r="M4" t="n">
-        <v>1009.314709931336</v>
+        <v>1011.104852762826</v>
       </c>
       <c r="N4" t="n">
-        <v>1386.806220807371</v>
+        <v>1388.596363638862</v>
       </c>
       <c r="O4" t="n">
-        <v>1742.234349487134</v>
+        <v>1744.024492318625</v>
       </c>
       <c r="P4" t="n">
-        <v>1742.234349487134</v>
+        <v>1935.106764615869</v>
       </c>
       <c r="Q4" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615869</v>
       </c>
       <c r="R4" t="n">
-        <v>1798.56100972851</v>
+        <v>1888.068151303043</v>
       </c>
       <c r="S4" t="n">
-        <v>1628.425962247645</v>
+        <v>1717.933103822178</v>
       </c>
       <c r="T4" t="n">
-        <v>1385.086614473545</v>
+        <v>1717.933103822178</v>
       </c>
       <c r="U4" t="n">
-        <v>1321.740583753816</v>
+        <v>1437.748655322482</v>
       </c>
       <c r="V4" t="n">
-        <v>1321.740583753816</v>
+        <v>1437.748655322482</v>
       </c>
       <c r="W4" t="n">
-        <v>1046.888179926329</v>
+        <v>1162.896251494995</v>
       </c>
       <c r="X4" t="n">
-        <v>804.324283372134</v>
+        <v>920.3323549408</v>
       </c>
       <c r="Y4" t="n">
-        <v>804.324283372134</v>
+        <v>693.989586630542</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>930.4243152146078</v>
+        <v>1376.947823099961</v>
       </c>
       <c r="C5" t="n">
-        <v>907.563989268312</v>
+        <v>1354.087497153665</v>
       </c>
       <c r="D5" t="n">
-        <v>484.2713684533122</v>
+        <v>930.7948763386659</v>
       </c>
       <c r="E5" t="n">
-        <v>462.3348326415738</v>
+        <v>908.8583405269275</v>
       </c>
       <c r="F5" t="n">
-        <v>441.2510548713781</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G5" t="n">
-        <v>36.91199246082674</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
-        <v>36.91199246082674</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>493.6978991635576</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L5" t="n">
-        <v>932.7282368344229</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M5" t="n">
-        <v>1389.514143537154</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N5" t="n">
-        <v>1389.514143537154</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O5" t="n">
-        <v>1389.514143537154</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P5" t="n">
-        <v>1389.514143537154</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q5" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V5" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W5" t="n">
-        <v>1763.289544343096</v>
+        <v>1828.519902762723</v>
       </c>
       <c r="X5" t="n">
-        <v>1351.569545510843</v>
+        <v>1820.840307970875</v>
       </c>
       <c r="Y5" t="n">
-        <v>1350.272679506138</v>
+        <v>1415.503037925765</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>604.0354834922822</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>486.529580009787</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>382.689621525072</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>277.9876877980092</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>184.3418574809133</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851735</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>36.91199246082694</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.35863542273878</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>44.35863542273878</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="K6" t="n">
-        <v>501.1445421254696</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="L6" t="n">
-        <v>501.1445421254696</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="M6" t="n">
-        <v>850.0084995511718</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="N6" t="n">
-        <v>850.0084995511718</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O6" t="n">
-        <v>850.0084995511718</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P6" t="n">
-        <v>1306.794406253903</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q6" t="n">
-        <v>1763.580312956634</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>1622.39543990027</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.13272779239</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>872.6553815590526</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>732.9624929123449</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>538.2987454066421</v>
+        <v>792.5008004748155</v>
       </c>
       <c r="C7" t="n">
-        <v>538.2987454066421</v>
+        <v>620.5282373537315</v>
       </c>
       <c r="D7" t="n">
-        <v>374.9819725334128</v>
+        <v>620.5282373537315</v>
       </c>
       <c r="E7" t="n">
-        <v>208.7737666862663</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="F7" t="n">
-        <v>36.91199246082674</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
-        <v>36.91199246082674</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
-        <v>36.91199246082674</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>320.9309218908219</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>320.9309218908219</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>712.1167168610727</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1089.608227737109</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1428.000280878674</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>1798.56100972851</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>1798.56100972851</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T7" t="n">
-        <v>1555.22166195441</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U7" t="n">
-        <v>1555.22166195441</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V7" t="n">
-        <v>1273.510194562439</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="W7" t="n">
-        <v>998.657790734952</v>
+        <v>1209.361391567401</v>
       </c>
       <c r="X7" t="n">
-        <v>764.6415137169</v>
+        <v>1018.843568785073</v>
       </c>
       <c r="Y7" t="n">
-        <v>538.2987454066421</v>
+        <v>792.5008004748155</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1334.464719255012</v>
+        <v>938.0105478030285</v>
       </c>
       <c r="C8" t="n">
-        <v>1311.604393308716</v>
+        <v>915.1502218567327</v>
       </c>
       <c r="D8" t="n">
-        <v>888.3117724937163</v>
+        <v>491.857601041733</v>
       </c>
       <c r="E8" t="n">
-        <v>462.3348326415738</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F8" t="n">
-        <v>441.2510548713781</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>399.5154512777223</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>856.3013579804531</v>
+        <v>116.829168004879</v>
       </c>
       <c r="L8" t="n">
-        <v>932.7282368344229</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="M8" t="n">
-        <v>932.7282368344229</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="N8" t="n">
-        <v>932.7282368344229</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="O8" t="n">
-        <v>932.7282368344229</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P8" t="n">
-        <v>1389.514143537154</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>1763.289544343096</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V8" t="n">
-        <v>1763.289544343096</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W8" t="n">
-        <v>1763.289544343096</v>
+        <v>2174.916180971921</v>
       </c>
       <c r="X8" t="n">
-        <v>1755.609949551248</v>
+        <v>1763.196182139668</v>
       </c>
       <c r="Y8" t="n">
-        <v>1754.313083546542</v>
+        <v>1357.858912094558</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>604.035483492282</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>486.5295800097867</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250718</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>277.987687798009</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>184.3418574809131</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851715</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.35863542273858</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>44.35863542273858</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K9" t="n">
-        <v>44.35863542273858</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L9" t="n">
-        <v>44.35863542273858</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M9" t="n">
-        <v>44.35863542273858</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N9" t="n">
-        <v>475.2419029331439</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O9" t="n">
-        <v>932.0278096358747</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P9" t="n">
-        <v>1388.813716338606</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q9" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>1622.395439900269</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1036.132727792389</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>872.6553815590523</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.9624929123447</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>208.8845555819107</v>
+        <v>811.9105159605548</v>
       </c>
       <c r="C10" t="n">
-        <v>36.91199246082674</v>
+        <v>811.9105159605548</v>
       </c>
       <c r="D10" t="n">
-        <v>36.91199246082674</v>
+        <v>648.5937430873255</v>
       </c>
       <c r="E10" t="n">
-        <v>36.91199246082674</v>
+        <v>482.385537240179</v>
       </c>
       <c r="F10" t="n">
-        <v>36.91199246082674</v>
+        <v>310.5237630147394</v>
       </c>
       <c r="G10" t="n">
-        <v>36.91199246082674</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H10" t="n">
-        <v>36.91199246082674</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>320.9309218908219</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>675.6202431852428</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>1066.806038155494</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1072.572152198911</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1428.000280878674</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>1798.56100972851</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>1798.56100972851</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>1704.705508877583</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.521060377887</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="V10" t="n">
-        <v>1142.809592985916</v>
+        <v>1745.83555336456</v>
       </c>
       <c r="W10" t="n">
-        <v>867.9571891584293</v>
+        <v>1470.983149537073</v>
       </c>
       <c r="X10" t="n">
-        <v>625.3932926042344</v>
+        <v>1228.419252982878</v>
       </c>
       <c r="Y10" t="n">
-        <v>399.0505242939764</v>
+        <v>1002.07648467262</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2087.590413605487</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C11" t="n">
-        <v>1660.689683618787</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
-        <v>1660.689683618787</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
-        <v>1234.712743766645</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>809.5885619560448</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>405.2494995454934</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H11" t="n">
-        <v>107.3811210195283</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
-        <v>72.4842497629995</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>72.4842497629995</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K11" t="n">
-        <v>787.9925577384986</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L11" t="n">
-        <v>1684.985148555617</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M11" t="n">
-        <v>1684.985148555617</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N11" t="n">
-        <v>1684.985148555617</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O11" t="n">
-        <v>2530.129798706429</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P11" t="n">
-        <v>3238.409077864357</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q11" t="n">
-        <v>3506.656153268072</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R11" t="n">
-        <v>3624.212488149975</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S11" t="n">
-        <v>3519.845194023115</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T11" t="n">
-        <v>3511.546086414731</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U11" t="n">
-        <v>3253.191177011143</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>2895.701762137393</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W11" t="n">
-        <v>2499.31041243774</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X11" t="n">
-        <v>2087.590413605487</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y11" t="n">
-        <v>2087.590413605487</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>639.6077407944547</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>522.1018373119595</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>418.2618788272445</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>313.5599451001817</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>125.8603430006899</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>72.4842497629995</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>72.4842497629995</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J12" t="n">
-        <v>344.1817390425906</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K12" t="n">
-        <v>344.1817390425906</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L12" t="n">
-        <v>991.6906023320375</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M12" t="n">
-        <v>991.6906023320375</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N12" t="n">
-        <v>991.6906023320375</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O12" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P12" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q12" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R12" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>908.227638861225</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>768.5347502145174</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1155.665372287236</v>
+        <v>1085.715267670341</v>
       </c>
       <c r="C13" t="n">
-        <v>983.6928091661523</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="D13" t="n">
-        <v>820.376036292923</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E13" t="n">
-        <v>654.1678304457765</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F13" t="n">
-        <v>482.306056220337</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G13" t="n">
-        <v>316.0490865145691</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H13" t="n">
-        <v>172.2528180227235</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I13" t="n">
-        <v>72.4842497629995</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K13" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L13" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S13" t="n">
-        <v>2252.897277176128</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T13" t="n">
-        <v>2252.897277176128</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="U13" t="n">
-        <v>2252.897277176128</v>
+        <v>1868.621907200057</v>
       </c>
       <c r="V13" t="n">
-        <v>2089.590409691242</v>
+        <v>1586.910439808086</v>
       </c>
       <c r="W13" t="n">
-        <v>1814.738005863755</v>
+        <v>1312.058035980599</v>
       </c>
       <c r="X13" t="n">
-        <v>1572.17410930956</v>
+        <v>1312.058035980599</v>
       </c>
       <c r="Y13" t="n">
-        <v>1345.831340999302</v>
+        <v>1085.715267670341</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2106.543972009935</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C14" t="n">
-        <v>1679.643242023235</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
-        <v>1256.350621208236</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
-        <v>830.3736813560932</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>405.2494995454934</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G14" t="n">
-        <v>405.2494995454934</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H14" t="n">
-        <v>107.3811210195283</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
-        <v>72.48424976299953</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>72.48424976299953</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>787.9925577384986</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>787.9925577384986</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>1684.985148555618</v>
+        <v>2467.904347614084</v>
       </c>
       <c r="N14" t="n">
-        <v>2581.977739372737</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O14" t="n">
-        <v>3427.122389523549</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P14" t="n">
-        <v>3506.656153268073</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q14" t="n">
-        <v>3506.656153268073</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R14" t="n">
-        <v>3624.212488149976</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S14" t="n">
-        <v>3555.429255788738</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T14" t="n">
-        <v>3334.503684833371</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U14" t="n">
-        <v>3334.503684833371</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>3334.503684833371</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W14" t="n">
-        <v>2938.112335133718</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X14" t="n">
-        <v>2526.392336301466</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y14" t="n">
-        <v>2526.392336301466</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>125.8603430006899</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>72.48424976299953</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>72.48424976299953</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>72.48424976299953</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K15" t="n">
-        <v>72.48424976299953</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L15" t="n">
-        <v>909.2830578459057</v>
+        <v>855.0038060102931</v>
       </c>
       <c r="M15" t="n">
-        <v>991.6906023320378</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N15" t="n">
-        <v>991.6906023320378</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O15" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P15" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q15" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R15" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1011.869103795391</v>
+        <v>703.5067984699893</v>
       </c>
       <c r="C16" t="n">
-        <v>839.8965406743067</v>
+        <v>703.5067984699893</v>
       </c>
       <c r="D16" t="n">
-        <v>676.5797678010774</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="E16" t="n">
-        <v>510.371561953931</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="F16" t="n">
-        <v>338.5097877284914</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G16" t="n">
-        <v>172.2528180227235</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H16" t="n">
-        <v>172.2528180227235</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I16" t="n">
-        <v>72.48424976299953</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K16" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L16" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2205.858663863301</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S16" t="n">
-        <v>2035.723616382436</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T16" t="n">
-        <v>1945.794141199396</v>
+        <v>2009.161783053596</v>
       </c>
       <c r="U16" t="n">
-        <v>1945.794141199396</v>
+        <v>1728.9773345539</v>
       </c>
       <c r="V16" t="n">
-        <v>1945.794141199396</v>
+        <v>1447.265867161929</v>
       </c>
       <c r="W16" t="n">
-        <v>1670.941737371909</v>
+        <v>1172.413463334442</v>
       </c>
       <c r="X16" t="n">
-        <v>1428.377840817714</v>
+        <v>929.8495667802473</v>
       </c>
       <c r="Y16" t="n">
-        <v>1202.035072507456</v>
+        <v>703.5067984699893</v>
       </c>
     </row>
     <row r="17">
@@ -5489,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>817.8110213813276</v>
+        <v>923.0523692223782</v>
       </c>
       <c r="L17" t="n">
-        <v>1747.436069000604</v>
+        <v>1852.677416841655</v>
       </c>
       <c r="M17" t="n">
-        <v>2011.818868109901</v>
+        <v>2856.963518260713</v>
       </c>
       <c r="N17" t="n">
-        <v>2988.069926596602</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="O17" t="n">
         <v>3833.214576747414</v>
@@ -5549,16 +5551,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742373</v>
       </c>
       <c r="C18" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259878</v>
       </c>
       <c r="D18" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775163</v>
       </c>
       <c r="E18" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.523735048101</v>
       </c>
       <c r="F18" t="n">
-        <v>249.7325784259149</v>
+        <v>3453.877904731005</v>
       </c>
       <c r="G18" t="n">
-        <v>155.678806643519</v>
+        <v>3359.824132948609</v>
       </c>
       <c r="H18" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="J18" t="n">
-        <v>374.0002026854196</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="K18" t="n">
-        <v>964.4851292537592</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="L18" t="n">
-        <v>1021.509065974867</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="M18" t="n">
-        <v>1021.509065974867</v>
+        <v>4225.654392279956</v>
       </c>
       <c r="N18" t="n">
-        <v>1021.509065974867</v>
+        <v>4225.654392279956</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q18" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R18" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S18" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.811422852682</v>
       </c>
       <c r="T18" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.93148715036</v>
       </c>
       <c r="U18" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069997</v>
       </c>
       <c r="V18" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209264</v>
       </c>
       <c r="W18" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.668775042481</v>
       </c>
       <c r="X18" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809144</v>
       </c>
       <c r="Y18" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162436</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3894.167120823242</v>
+        <v>756.1902889499656</v>
       </c>
       <c r="C19" t="n">
-        <v>3722.194557702158</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="D19" t="n">
-        <v>3558.877784828929</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="E19" t="n">
-        <v>3392.669578981782</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F19" t="n">
-        <v>3220.807804756343</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G19" t="n">
-        <v>3054.550835050575</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H19" t="n">
-        <v>3034.49121113802</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
-        <v>2934.722642878296</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>2992.213971102454</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>3218.741572308291</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
-        <v>3573.430893602712</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M19" t="n">
-        <v>3964.616688572963</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N19" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O19" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P19" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q19" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>5115.135670291427</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>5115.135670291427</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T19" t="n">
-        <v>5115.135670291427</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U19" t="n">
-        <v>4834.951221791732</v>
+        <v>1971.826793745942</v>
       </c>
       <c r="V19" t="n">
-        <v>4553.23975439976</v>
+        <v>1690.115326353971</v>
       </c>
       <c r="W19" t="n">
-        <v>4553.23975439976</v>
+        <v>1415.262922526484</v>
       </c>
       <c r="X19" t="n">
-        <v>4310.675857845566</v>
+        <v>1172.699025972289</v>
       </c>
       <c r="Y19" t="n">
-        <v>4084.333089535307</v>
+        <v>946.3562576620313</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5738,13 +5740,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
-        <v>137.199584662357</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
@@ -5753,19 +5755,19 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2011.818868109901</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N20" t="n">
-        <v>2988.069926596602</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O20" t="n">
-        <v>3833.214576747414</v>
+        <v>3959.47027938737</v>
       </c>
       <c r="P20" t="n">
         <v>4541.493855905342</v>
@@ -5786,7 +5788,7 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
         <v>3777.607131232208</v>
@@ -5826,22 +5828,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M21" t="n">
-        <v>1158.289251381874</v>
+        <v>1165.735894343786</v>
       </c>
       <c r="N21" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O21" t="n">
         <v>1910.990343986338</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3158.801708427964</v>
+        <v>753.250092117427</v>
       </c>
       <c r="C22" t="n">
-        <v>2986.82914530688</v>
+        <v>581.277528996343</v>
       </c>
       <c r="D22" t="n">
-        <v>2934.722642878299</v>
+        <v>417.9607561231137</v>
       </c>
       <c r="E22" t="n">
-        <v>2934.722642878299</v>
+        <v>417.9607561231137</v>
       </c>
       <c r="F22" t="n">
-        <v>2934.722642878299</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="G22" t="n">
-        <v>2934.722642878299</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>5068.0970569786</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>4897.962009497735</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T22" t="n">
-        <v>4654.622661723635</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U22" t="n">
-        <v>4374.43821322394</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="V22" t="n">
-        <v>4092.726745831969</v>
+        <v>1503.646164133598</v>
       </c>
       <c r="W22" t="n">
-        <v>3817.874342004482</v>
+        <v>1412.322725693945</v>
       </c>
       <c r="X22" t="n">
-        <v>3575.310445450287</v>
+        <v>1169.758829139751</v>
       </c>
       <c r="Y22" t="n">
-        <v>3348.967677140029</v>
+        <v>943.4160608294926</v>
       </c>
     </row>
     <row r="23">
@@ -5993,22 +5995,22 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1463.618246195026</v>
+        <v>1581.174581076928</v>
       </c>
       <c r="M23" t="n">
-        <v>2467.904347614084</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N23" t="n">
-        <v>3444.155406100785</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O23" t="n">
-        <v>4289.300056251597</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P23" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6072,22 +6074,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M24" t="n">
-        <v>1158.289251381874</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N24" t="n">
-        <v>1158.289251381874</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O24" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P24" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q24" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>589.9333192441977</v>
+        <v>3797.843420773281</v>
       </c>
       <c r="C25" t="n">
-        <v>417.9607561231137</v>
+        <v>3682.614429408222</v>
       </c>
       <c r="D25" t="n">
-        <v>417.9607561231137</v>
+        <v>3682.614429408222</v>
       </c>
       <c r="E25" t="n">
-        <v>417.9607561231137</v>
+        <v>3516.406223561076</v>
       </c>
       <c r="F25" t="n">
-        <v>246.0989818976742</v>
+        <v>3344.544449335636</v>
       </c>
       <c r="G25" t="n">
-        <v>246.0989818976742</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="H25" t="n">
-        <v>102.3027134058285</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I25" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L25" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M25" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N25" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O25" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P25" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q25" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S25" t="n">
-        <v>2235.67712750613</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="T25" t="n">
-        <v>1992.33777973203</v>
+        <v>4824.7577092045</v>
       </c>
       <c r="U25" t="n">
-        <v>1805.569824040174</v>
+        <v>4544.573260704805</v>
       </c>
       <c r="V25" t="n">
-        <v>1523.858356648203</v>
+        <v>4262.861793312833</v>
       </c>
       <c r="W25" t="n">
-        <v>1249.005952820716</v>
+        <v>3988.009389485347</v>
       </c>
       <c r="X25" t="n">
-        <v>1006.442056266521</v>
+        <v>3988.009389485347</v>
       </c>
       <c r="Y25" t="n">
-        <v>780.0992879562634</v>
+        <v>3988.009389485347</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6226,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>409.5807935972459</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>1125.089101572745</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L26" t="n">
-        <v>1125.089101572745</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M26" t="n">
-        <v>2129.375202991803</v>
+        <v>2036.213862444163</v>
       </c>
       <c r="N26" t="n">
-        <v>3105.626261478504</v>
+        <v>3012.464920930865</v>
       </c>
       <c r="O26" t="n">
-        <v>3950.770911629316</v>
+        <v>3857.609571081677</v>
       </c>
       <c r="P26" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>563.5863609803849</v>
+        <v>778.6022263052665</v>
       </c>
       <c r="C28" t="n">
-        <v>391.6137978593009</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="D28" t="n">
-        <v>391.6137978593009</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="E28" t="n">
-        <v>391.6137978593009</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F28" t="n">
-        <v>391.6137978593009</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G28" t="n">
-        <v>225.3568281535331</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6406,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S28" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T28" t="n">
-        <v>1869.241345563992</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U28" t="n">
-        <v>1589.056897064296</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="V28" t="n">
-        <v>1307.345429672325</v>
+        <v>1712.527263709272</v>
       </c>
       <c r="W28" t="n">
-        <v>1032.493025844838</v>
+        <v>1437.674859881785</v>
       </c>
       <c r="X28" t="n">
-        <v>789.9291292906429</v>
+        <v>1195.11096332759</v>
       </c>
       <c r="Y28" t="n">
-        <v>563.5863609803849</v>
+        <v>968.7681950173321</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6463,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>533.9931985757493</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1463.618246195026</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2467.904347614084</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N29" t="n">
-        <v>3444.155406100785</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O29" t="n">
-        <v>4289.300056251597</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P29" t="n">
-        <v>4997.579335409525</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409525</v>
+        <v>5095.799995117123</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6549,19 +6551,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>102.3027134058285</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N30" t="n">
-        <v>648.6278400003578</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O30" t="n">
-        <v>648.6278400003578</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P30" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q30" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>747.5344987021109</v>
+        <v>608.0932463474637</v>
       </c>
       <c r="C31" t="n">
-        <v>747.5344987021109</v>
+        <v>608.0932463474637</v>
       </c>
       <c r="D31" t="n">
-        <v>584.2177258288816</v>
+        <v>608.0932463474637</v>
       </c>
       <c r="E31" t="n">
-        <v>584.2177258288816</v>
+        <v>441.8850405003172</v>
       </c>
       <c r="F31" t="n">
-        <v>412.355951603442</v>
+        <v>270.0232662748776</v>
       </c>
       <c r="G31" t="n">
-        <v>246.0989818976742</v>
+        <v>270.0232662748776</v>
       </c>
       <c r="H31" t="n">
-        <v>102.3027134058285</v>
+        <v>126.226997783032</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6655,16 +6657,16 @@
         <v>1542.018283751469</v>
       </c>
       <c r="V31" t="n">
-        <v>1438.895639551921</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="W31" t="n">
-        <v>1164.043235724434</v>
+        <v>1267.165879923982</v>
       </c>
       <c r="X31" t="n">
-        <v>1164.043235724434</v>
+        <v>1024.601983369787</v>
       </c>
       <c r="Y31" t="n">
-        <v>937.7004674141765</v>
+        <v>798.2592150595294</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6688,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
@@ -6701,22 +6703,22 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>1180.414480198223</v>
+        <v>533.9931985757493</v>
       </c>
       <c r="L32" t="n">
-        <v>2110.0395278175</v>
+        <v>1463.618246195026</v>
       </c>
       <c r="M32" t="n">
-        <v>2988.069926596602</v>
+        <v>2467.904347614084</v>
       </c>
       <c r="N32" t="n">
-        <v>2988.069926596602</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O32" t="n">
-        <v>3833.214576747414</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P32" t="n">
-        <v>4541.493855905342</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q32" t="n">
         <v>4997.579335409525</v>
@@ -6774,25 +6776,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J33" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K33" t="n">
-        <v>700.2342829360799</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>700.2342829360799</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.79262694784</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N33" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O33" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P33" t="n">
         <v>1910.990343986338</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1041.68756743822</v>
+        <v>3845.931202281452</v>
       </c>
       <c r="C34" t="n">
-        <v>869.7150043171358</v>
+        <v>3845.931202281452</v>
       </c>
       <c r="D34" t="n">
-        <v>706.3982314439065</v>
+        <v>3682.614429408222</v>
       </c>
       <c r="E34" t="n">
-        <v>540.1900255967601</v>
+        <v>3516.406223561076</v>
       </c>
       <c r="F34" t="n">
-        <v>368.3282513713204</v>
+        <v>3344.544449335636</v>
       </c>
       <c r="G34" t="n">
-        <v>202.0712816655526</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I34" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L34" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M34" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N34" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O34" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P34" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q34" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S34" t="n">
-        <v>2235.67712750613</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="T34" t="n">
-        <v>2235.67712750613</v>
+        <v>4824.7577092045</v>
       </c>
       <c r="U34" t="n">
-        <v>2030.981303923938</v>
+        <v>4544.573260704805</v>
       </c>
       <c r="V34" t="n">
-        <v>1749.269836531967</v>
+        <v>4544.573260704805</v>
       </c>
       <c r="W34" t="n">
-        <v>1474.41743270448</v>
+        <v>4269.720856877318</v>
       </c>
       <c r="X34" t="n">
-        <v>1231.853536150285</v>
+        <v>4262.439939303775</v>
       </c>
       <c r="Y34" t="n">
-        <v>1231.853536150285</v>
+        <v>4036.097170993517</v>
       </c>
     </row>
     <row r="35">
@@ -6929,7 +6931,7 @@
         <v>435.0679631883222</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
@@ -6938,25 +6940,25 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>533.9931985757493</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1463.618246195026</v>
+        <v>1833.368380730673</v>
       </c>
       <c r="M35" t="n">
-        <v>2467.904347614084</v>
+        <v>2837.654482149731</v>
       </c>
       <c r="N35" t="n">
-        <v>3444.155406100785</v>
+        <v>3813.905540636432</v>
       </c>
       <c r="O35" t="n">
-        <v>4289.300056251597</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="P35" t="n">
-        <v>4997.579335409525</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R35" t="n">
         <v>5115.135670291427</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742373</v>
       </c>
       <c r="C36" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259878</v>
       </c>
       <c r="D36" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775163</v>
       </c>
       <c r="E36" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.523735048101</v>
       </c>
       <c r="F36" t="n">
-        <v>249.7325784259149</v>
+        <v>3453.877904731005</v>
       </c>
       <c r="G36" t="n">
-        <v>155.678806643519</v>
+        <v>3359.824132948609</v>
       </c>
       <c r="H36" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="J36" t="n">
-        <v>374.0002026854196</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="K36" t="n">
-        <v>374.0002026854196</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="L36" t="n">
-        <v>374.0002026854196</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="M36" t="n">
-        <v>374.0002026854196</v>
+        <v>4025.820723818557</v>
       </c>
       <c r="N36" t="n">
-        <v>1446.844867123559</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="O36" t="n">
-        <v>1446.844867123559</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="P36" t="n">
-        <v>1446.844867123559</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R36" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S36" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.811422852682</v>
       </c>
       <c r="T36" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.93148715036</v>
       </c>
       <c r="U36" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069997</v>
       </c>
       <c r="V36" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209264</v>
       </c>
       <c r="W36" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.668775042481</v>
       </c>
       <c r="X36" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809144</v>
       </c>
       <c r="Y36" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162436</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>616.7597400424195</v>
+        <v>3751.878227437044</v>
       </c>
       <c r="C37" t="n">
-        <v>444.7871769213355</v>
+        <v>3579.90566431596</v>
       </c>
       <c r="D37" t="n">
-        <v>434.7678889587429</v>
+        <v>3416.588891442731</v>
       </c>
       <c r="E37" t="n">
-        <v>268.5596831115964</v>
+        <v>3250.380685595584</v>
       </c>
       <c r="F37" t="n">
-        <v>268.5596831115964</v>
+        <v>3078.518911370144</v>
       </c>
       <c r="G37" t="n">
-        <v>102.3027134058285</v>
+        <v>3078.518911370144</v>
       </c>
       <c r="H37" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="I37" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L37" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M37" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N37" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O37" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P37" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q37" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R37" t="n">
-        <v>2282.715740818957</v>
+        <v>5104.609704768222</v>
       </c>
       <c r="S37" t="n">
-        <v>2112.580693338092</v>
+        <v>4934.474657287357</v>
       </c>
       <c r="T37" t="n">
-        <v>2112.580693338092</v>
+        <v>4691.135309513257</v>
       </c>
       <c r="U37" t="n">
-        <v>1832.396244838396</v>
+        <v>4410.950861013562</v>
       </c>
       <c r="V37" t="n">
-        <v>1550.684777446425</v>
+        <v>4410.950861013562</v>
       </c>
       <c r="W37" t="n">
-        <v>1275.832373618938</v>
+        <v>4410.950861013562</v>
       </c>
       <c r="X37" t="n">
-        <v>1033.268477064743</v>
+        <v>4168.386964459367</v>
       </c>
       <c r="Y37" t="n">
-        <v>806.9257087544852</v>
+        <v>3942.044196149109</v>
       </c>
     </row>
     <row r="38">
@@ -7160,10 +7162,10 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883226</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H38" t="n">
         <v>137.1995846623573</v>
@@ -7172,46 +7174,46 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>456.2068044646685</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>1171.715112440168</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>2101.340160059444</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M38" t="n">
-        <v>3105.626261478502</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N38" t="n">
-        <v>3105.626261478502</v>
+        <v>3160.951640103982</v>
       </c>
       <c r="O38" t="n">
-        <v>3950.770911629314</v>
+        <v>4006.096290254794</v>
       </c>
       <c r="P38" t="n">
-        <v>4659.050190787242</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291425</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T38" t="n">
         <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
-        <v>4531.487895805611</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.99848093186</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232207</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
         <v>3365.887132399955</v>
@@ -7242,37 +7244,37 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G39" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H39" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>109.7493563677403</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
         <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>971.931772215671</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L39" t="n">
-        <v>971.931772215671</v>
+        <v>1218.245653730238</v>
       </c>
       <c r="M39" t="n">
-        <v>971.931772215671</v>
+        <v>1218.245653730238</v>
       </c>
       <c r="N39" t="n">
-        <v>971.931772215671</v>
+        <v>1218.245653730238</v>
       </c>
       <c r="O39" t="n">
-        <v>971.931772215671</v>
+        <v>1218.245653730238</v>
       </c>
       <c r="P39" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q39" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7306,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1185.483835930065</v>
+        <v>878.3707945649905</v>
       </c>
       <c r="C40" t="n">
-        <v>1013.511272808981</v>
+        <v>706.3982314439065</v>
       </c>
       <c r="D40" t="n">
-        <v>850.194499935752</v>
+        <v>706.3982314439065</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886055</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="F40" t="n">
-        <v>512.1245198631659</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573981</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655525</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7354,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.67712750613</v>
+        <v>2263.390779169462</v>
       </c>
       <c r="S40" t="n">
-        <v>2065.542080025265</v>
+        <v>2093.255731688597</v>
       </c>
       <c r="T40" t="n">
-        <v>2065.542080025265</v>
+        <v>1849.916383914497</v>
       </c>
       <c r="U40" t="n">
-        <v>1844.556469506584</v>
+        <v>1569.731935414801</v>
       </c>
       <c r="V40" t="n">
-        <v>1844.556469506584</v>
+        <v>1569.731935414801</v>
       </c>
       <c r="W40" t="n">
-        <v>1844.556469506584</v>
+        <v>1294.879531587314</v>
       </c>
       <c r="X40" t="n">
-        <v>1601.992572952389</v>
+        <v>1294.879531587314</v>
       </c>
       <c r="Y40" t="n">
-        <v>1375.649804642131</v>
+        <v>1068.536763277056</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2178.117784637993</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C41" t="n">
-        <v>1751.217054651293</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D41" t="n">
-        <v>1327.924433836293</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E41" t="n">
-        <v>901.9474939841507</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>476.8233121735509</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G41" t="n">
-        <v>72.4842497629995</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H41" t="n">
-        <v>72.4842497629995</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I41" t="n">
-        <v>72.4842497629995</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>435.087708579895</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K41" t="n">
-        <v>1150.596016555394</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>1150.596016555394</v>
+        <v>1983.783825177544</v>
       </c>
       <c r="M41" t="n">
-        <v>1150.596016555394</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N41" t="n">
-        <v>2047.588607372513</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O41" t="n">
-        <v>2892.733257523325</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P41" t="n">
-        <v>3601.012536681253</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q41" t="n">
-        <v>3601.012536681253</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R41" t="n">
-        <v>3624.212488149974</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S41" t="n">
-        <v>3624.212488149974</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T41" t="n">
-        <v>3624.212488149974</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U41" t="n">
-        <v>3624.212488149974</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>3415.023417806885</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W41" t="n">
-        <v>3415.023417806885</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X41" t="n">
-        <v>3003.303418974633</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y41" t="n">
-        <v>2597.966148929523</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>639.6077407944547</v>
+        <v>3873.571530742373</v>
       </c>
       <c r="C42" t="n">
-        <v>522.1018373119595</v>
+        <v>3756.065627259878</v>
       </c>
       <c r="D42" t="n">
-        <v>418.2618788272445</v>
+        <v>3652.225668775163</v>
       </c>
       <c r="E42" t="n">
-        <v>313.5599451001817</v>
+        <v>3547.523735048101</v>
       </c>
       <c r="F42" t="n">
-        <v>219.9141147830859</v>
+        <v>3453.877904731005</v>
       </c>
       <c r="G42" t="n">
-        <v>125.8603430006899</v>
+        <v>3359.824132948609</v>
       </c>
       <c r="H42" t="n">
-        <v>72.4842497629995</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="I42" t="n">
-        <v>72.4842497629995</v>
+        <v>3313.894682672831</v>
       </c>
       <c r="J42" t="n">
-        <v>72.4842497629995</v>
+        <v>3313.894682672831</v>
       </c>
       <c r="K42" t="n">
-        <v>72.4842497629995</v>
+        <v>3509.456675241458</v>
       </c>
       <c r="L42" t="n">
-        <v>72.4842497629995</v>
+        <v>3509.456675241458</v>
       </c>
       <c r="M42" t="n">
-        <v>969.4768405801182</v>
+        <v>3509.456675241458</v>
       </c>
       <c r="N42" t="n">
-        <v>969.4768405801182</v>
+        <v>3509.456675241458</v>
       </c>
       <c r="O42" t="n">
-        <v>1799.152570258806</v>
+        <v>4398.937953252929</v>
       </c>
       <c r="P42" t="n">
-        <v>1799.152570258806</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q42" t="n">
-        <v>1799.152570258806</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R42" t="n">
-        <v>1881.171880343509</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S42" t="n">
-        <v>1799.847632904764</v>
+        <v>5033.811422852682</v>
       </c>
       <c r="T42" t="n">
-        <v>1657.967697202442</v>
+        <v>4891.93148715036</v>
       </c>
       <c r="U42" t="n">
-        <v>1473.199501122079</v>
+        <v>4707.163291069997</v>
       </c>
       <c r="V42" t="n">
-        <v>1268.226362261345</v>
+        <v>4502.190152209264</v>
       </c>
       <c r="W42" t="n">
-        <v>1071.704985094562</v>
+        <v>4305.668775042481</v>
       </c>
       <c r="X42" t="n">
-        <v>908.227638861225</v>
+        <v>4142.191428809144</v>
       </c>
       <c r="Y42" t="n">
-        <v>768.5347502145174</v>
+        <v>4002.498540162436</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>766.9137325244247</v>
+        <v>850.3052888313966</v>
       </c>
       <c r="C43" t="n">
-        <v>594.9411694033407</v>
+        <v>678.3327257103126</v>
       </c>
       <c r="D43" t="n">
-        <v>576.8111995413534</v>
+        <v>678.3327257103126</v>
       </c>
       <c r="E43" t="n">
-        <v>410.6029936942069</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="F43" t="n">
-        <v>238.7412194687674</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G43" t="n">
-        <v>72.4842497629995</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H43" t="n">
-        <v>72.4842497629995</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I43" t="n">
-        <v>72.4842497629995</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K43" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L43" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M43" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N43" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O43" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P43" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q43" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2205.858663863301</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S43" t="n">
-        <v>2035.723616382436</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T43" t="n">
-        <v>1792.384268608336</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U43" t="n">
-        <v>1792.384268608336</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V43" t="n">
-        <v>1510.672801216365</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="W43" t="n">
-        <v>1235.820397388878</v>
+        <v>1267.165879923982</v>
       </c>
       <c r="X43" t="n">
-        <v>993.2565008346827</v>
+        <v>1266.81402585372</v>
       </c>
       <c r="Y43" t="n">
-        <v>766.9137325244247</v>
+        <v>1040.471257543462</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1704.524575025105</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C44" t="n">
-        <v>1679.643242023235</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
-        <v>1256.350621208236</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>830.3736813560932</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>405.2494995454934</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G44" t="n">
-        <v>405.2494995454934</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H44" t="n">
-        <v>107.3811210195283</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
-        <v>72.4842497629995</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>435.087708579895</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K44" t="n">
-        <v>435.087708579895</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>435.087708579895</v>
+        <v>1983.783825177544</v>
       </c>
       <c r="M44" t="n">
-        <v>1332.080299397014</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N44" t="n">
-        <v>2229.072890214132</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O44" t="n">
-        <v>2342.291394605961</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P44" t="n">
-        <v>3050.570673763888</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q44" t="n">
-        <v>3506.656153268072</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R44" t="n">
-        <v>3624.212488149974</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>3519.845194023115</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T44" t="n">
-        <v>3298.919623067748</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U44" t="n">
-        <v>3298.919623067748</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>2941.430208193998</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W44" t="n">
-        <v>2941.430208193998</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
-        <v>2529.710209361745</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y44" t="n">
-        <v>2124.372939316635</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2382.64834860092</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>2265.142445118424</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>2161.30248663371</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>2056.600552906647</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>1962.954722589551</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>1868.900950807155</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>1815.524857569465</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>1815.524857569465</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J45" t="n">
-        <v>1815.524857569465</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K45" t="n">
-        <v>1815.524857569465</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="L45" t="n">
-        <v>1815.524857569465</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="M45" t="n">
-        <v>2645.200587248153</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="N45" t="n">
-        <v>3542.193178065271</v>
+        <v>939.4897558901635</v>
       </c>
       <c r="O45" t="n">
-        <v>3542.193178065271</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P45" t="n">
-        <v>3542.193178065271</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q45" t="n">
-        <v>3542.193178065271</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R45" t="n">
-        <v>3624.212488149974</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>3542.888240711229</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>3401.008305008907</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>3216.240108928544</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>3011.26697006781</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>2814.745592901027</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>2651.26824666769</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>2511.575358020983</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>578.2747827046346</v>
+        <v>843.7708094800807</v>
       </c>
       <c r="C46" t="n">
-        <v>406.3022195835506</v>
+        <v>671.7982463589967</v>
       </c>
       <c r="D46" t="n">
-        <v>242.9854467103213</v>
+        <v>508.4814734857674</v>
       </c>
       <c r="E46" t="n">
-        <v>242.9854467103213</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="F46" t="n">
-        <v>172.2528180227235</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G46" t="n">
-        <v>172.2528180227235</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H46" t="n">
-        <v>172.2528180227235</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I46" t="n">
-        <v>72.4842497629995</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K46" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L46" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2205.858663863301</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>2035.723616382436</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T46" t="n">
-        <v>1792.384268608336</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U46" t="n">
-        <v>1512.19982010864</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="V46" t="n">
-        <v>1512.19982010864</v>
+        <v>1587.529878172021</v>
       </c>
       <c r="W46" t="n">
-        <v>1237.347416281153</v>
+        <v>1312.677474344533</v>
       </c>
       <c r="X46" t="n">
-        <v>994.7835197269582</v>
+        <v>1070.113577790339</v>
       </c>
       <c r="Y46" t="n">
-        <v>768.4407514167002</v>
+        <v>843.7708094800807</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>497.1645065551435</v>
+        <v>519.5412919487767</v>
       </c>
       <c r="L2" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>37.43126289943181</v>
+        <v>135.3953010604151</v>
       </c>
       <c r="N2" t="n">
-        <v>113.770988142953</v>
+        <v>521.0563139884134</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>521.1676505099915</v>
       </c>
       <c r="P2" t="n">
-        <v>498.9752675705655</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
         <v>36.12467460459804</v>
@@ -8058,28 +8060,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>483.7991395936675</v>
+        <v>390.5045014003181</v>
       </c>
       <c r="L3" t="n">
-        <v>483.9149924745637</v>
+        <v>506.2917778681969</v>
       </c>
       <c r="M3" t="n">
-        <v>484.4966862726622</v>
+        <v>506.8734716662954</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>375.55972550576</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>505.547532358796</v>
       </c>
       <c r="Q3" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8152,10 +8154,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>22.38080065798648</v>
+        <v>215.3931969178292</v>
       </c>
       <c r="Q4" t="n">
-        <v>129.0289299912522</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8216,25 +8218,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>497.1645065551435</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>481.7770299789515</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>571.3293238908518</v>
       </c>
       <c r="Q5" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
         <v>35.03264989479647</v>
@@ -8289,34 +8291,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>178.8848775931265</v>
       </c>
       <c r="K6" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>375.4846162958655</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8377,7 +8379,7 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
-        <v>21.91875989570122</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M7" t="n">
         <v>417.7126065281028</v>
@@ -8386,7 +8388,7 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O7" t="n">
-        <v>364.3093421868743</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P7" t="n">
         <v>315.9153581548562</v>
@@ -8450,25 +8452,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>497.1645065551435</v>
+        <v>108.8261593358512</v>
       </c>
       <c r="L8" t="n">
-        <v>115.5109099618853</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>498.9752675705655</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
@@ -8526,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
         <v>20.61111433333334</v>
@@ -8535,22 +8537,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N9" t="n">
-        <v>456.5786519614258</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>484.5717954825564</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
-        <v>483.1707469651629</v>
+        <v>180.0446044646217</v>
       </c>
       <c r="Q9" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
         <v>23.67291939414415</v>
@@ -8620,7 +8622,7 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N10" t="n">
-        <v>26.57325859521377</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O10" t="n">
         <v>381.5174992961649</v>
@@ -8693,13 +8695,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>944.3651644701166</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>37.43126289943181</v>
+        <v>304.4845953330648</v>
       </c>
       <c r="N11" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
@@ -8708,7 +8710,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>307.0813164265323</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8766,16 +8768,16 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>676.5644435722568</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>23.09678051232798</v>
+        <v>951.5880457335786</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
@@ -8924,25 +8926,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>943.4843849369258</v>
+        <v>398.9108788555778</v>
       </c>
       <c r="N14" t="n">
-        <v>943.3327448719401</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>117.9124969057106</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
         <v>36.12467460459804</v>
@@ -9009,16 +9011,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>867.7664080100944</v>
+        <v>782.8192206581333</v>
       </c>
       <c r="M15" t="n">
-        <v>106.336724437714</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N15" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
@@ -9161,22 +9163,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>758.5002654165255</v>
+        <v>498.5385371580963</v>
       </c>
       <c r="L17" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>304.4845953330648</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P17" t="n">
         <v>753.0089771212694</v>
@@ -9240,16 +9242,16 @@
         <v>16.17238675</v>
       </c>
       <c r="J18" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>80.1150227961563</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>23.09678051232798</v>
+        <v>951.5880457335774</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
@@ -9401,22 +9403,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>586.4197136125407</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>753.0089771212694</v>
+        <v>625.4779643536372</v>
       </c>
       <c r="Q20" t="n">
         <v>496.8170781441769</v>
@@ -9474,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
         <v>20.61111433333334</v>
@@ -9489,10 +9491,10 @@
         <v>1089.749849175</v>
       </c>
       <c r="N21" t="n">
-        <v>21.34302821354166</v>
+        <v>774.1253005797566</v>
       </c>
       <c r="O21" t="n">
-        <v>783.4760236661258</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
@@ -9641,7 +9643,7 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
-        <v>324.3764525304035</v>
+        <v>443.1202251383856</v>
       </c>
       <c r="M23" t="n">
         <v>1051.861668373228</v>
@@ -9659,7 +9661,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9720,16 +9722,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M24" t="n">
-        <v>1089.749849175</v>
+        <v>106.3367244377138</v>
       </c>
       <c r="N24" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>700.6282357017791</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P24" t="n">
         <v>21.77084120482866</v>
@@ -9738,7 +9740,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R24" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>339.8018586688364</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L26" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
         <v>1051.861668373228</v>
@@ -9890,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>728.3675687028222</v>
       </c>
       <c r="Q26" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,16 +10111,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>471.8155959159414</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10130,10 +10132,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>54.56363491934598</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10197,22 +10199,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>23.09678051232798</v>
+        <v>951.5880457335786</v>
       </c>
       <c r="N30" t="n">
-        <v>573.1865904302379</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P30" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R30" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10349,16 +10351,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>758.5002654165255</v>
+        <v>105.5494758988752</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>924.3306556055956</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N32" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
@@ -10367,7 +10369,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10422,28 +10424,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J33" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>522.6506633524899</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N33" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
         <v>22.7470382889785</v>
@@ -10586,10 +10588,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>105.5494758988752</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>977.3272420480539</v>
+        <v>697.8614369098447</v>
       </c>
       <c r="M35" t="n">
         <v>1051.861668373228</v>
@@ -10601,13 +10603,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,7 +10664,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
         <v>22.39923383333334</v>
@@ -10671,10 +10673,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685286</v>
       </c>
       <c r="N36" t="n">
-        <v>1105.024507443985</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
@@ -10683,7 +10685,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10820,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>386.8988393430006</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M38" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>753.0089771212694</v>
+        <v>578.380983679471</v>
       </c>
       <c r="Q38" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,10 +10904,10 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M39" t="n">
         <v>23.09678051232798</v>
@@ -10917,13 +10919,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>418.6332501171365</v>
+        <v>721.5129525746274</v>
       </c>
       <c r="Q39" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11063,13 +11065,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>849.7962292804214</v>
       </c>
       <c r="M41" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>943.3327448719397</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
@@ -11078,10 +11080,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>58.46694430764677</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,34 +11135,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>219.9366000642696</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>929.1499025498216</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>861.2281823269574</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,19 +11299,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>849.7962292804214</v>
       </c>
       <c r="M44" t="n">
-        <v>943.4843849369254</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>943.3327448719397</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
-        <v>151.7530850043357</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
         <v>753.0089771212694</v>
@@ -11370,25 +11372,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>861.1530731170635</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>927.3961502510352</v>
+        <v>263.0152231166563</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P45" t="n">
         <v>21.77084120482866</v>
@@ -23255,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23309,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>210.5001987135126</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,22 +23466,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>35.86340573804472</v>
       </c>
       <c r="V13" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23507,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23543,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>35.22822114796504</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23701,16 +23703,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>151.8757738651496</v>
+        <v>16.65576328835036</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23893,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>122.4992781334979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>257.076727888472</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>110.098167740202</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -24178,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>181.6936757339558</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>56.17613603846489</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>92.48232787976173</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,19 +24609,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>119.3056147838265</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,10 +24657,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>170.3156388615773</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24841,22 +24843,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>75.08584104369532</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24895,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>176.8029349604992</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25090,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25126,22 +25128,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>74.73373866832901</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>232.9301491908455</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25315,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>151.7645100615304</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -25357,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>36.1475213117258</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25552,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25564,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>27.43651514669855</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>58.6068496012042</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25643,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>146.8173410853549</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>143.7349349811296</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,16 +25842,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>239.7899220590937</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25865,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>397.9992030149816</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25877,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25919,13 +25921,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,16 +26031,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>3.558339693589488</v>
       </c>
       <c r="F46" t="n">
-        <v>100.1178540824634</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>606871.7212630319</v>
+        <v>608478.0941794071</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>606871.7212630319</v>
+        <v>613679.1772676535</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>606871.7212630319</v>
+        <v>613679.1772676535</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>504199.0488481043</v>
+        <v>634141.6767664633</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>504199.0488481045</v>
+        <v>634141.6767664633</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>634141.6767664634</v>
+        <v>634141.6767664632</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>634141.6767664634</v>
+        <v>634141.6767664633</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>634141.6767664632</v>
+        <v>634141.6767664633</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>634141.6767664632</v>
+        <v>634141.6767664633</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>634141.6767664633</v>
+        <v>634141.6767664634</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>634141.6767664634</v>
+        <v>634141.6767664633</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>504199.0488481043</v>
+        <v>634141.6767664633</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>504199.0488481043</v>
+        <v>634141.6767664633</v>
       </c>
     </row>
   </sheetData>
@@ -26317,43 +26319,43 @@
         <v>465954.1344089304</v>
       </c>
       <c r="D2" t="n">
-        <v>465954.1344089303</v>
+        <v>465954.1344089304</v>
       </c>
       <c r="E2" t="n">
-        <v>357511.6055207053</v>
+        <v>449624.322509958</v>
       </c>
       <c r="F2" t="n">
-        <v>357511.6055207056</v>
+        <v>449624.3225099581</v>
       </c>
       <c r="G2" t="n">
-        <v>449624.3225099578</v>
+        <v>449624.3225099579</v>
       </c>
       <c r="H2" t="n">
         <v>449624.3225099579</v>
       </c>
       <c r="I2" t="n">
+        <v>449624.3225099579</v>
+      </c>
+      <c r="J2" t="n">
         <v>449624.3225099578</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>449624.3225099579</v>
+      </c>
+      <c r="L2" t="n">
+        <v>449624.3225099579</v>
+      </c>
+      <c r="M2" t="n">
+        <v>449624.3225099575</v>
+      </c>
+      <c r="N2" t="n">
         <v>449624.322509958</v>
       </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
         <v>449624.3225099577</v>
       </c>
-      <c r="L2" t="n">
-        <v>449624.3225099578</v>
-      </c>
-      <c r="M2" t="n">
-        <v>449624.3225099579</v>
-      </c>
-      <c r="N2" t="n">
-        <v>449624.3225099579</v>
-      </c>
-      <c r="O2" t="n">
-        <v>357511.6055207054</v>
-      </c>
       <c r="P2" t="n">
-        <v>357511.6055207054</v>
+        <v>449624.3225099577</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>154625.7206181205</v>
+        <v>162124.696069591</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23406.83367361243</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>132763.6680096017</v>
+        <v>215739.3565566406</v>
       </c>
       <c r="F3" t="n">
-        <v>1.30296939460095e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>102159.9200943099</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>120722.5169427569</v>
+        <v>126577.2685802886</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>18646.60035701996</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>110809.3601091333</v>
+        <v>180063.8714551677</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>214761.4484639727</v>
+        <v>211246.6236465253</v>
       </c>
       <c r="C4" t="n">
-        <v>214761.4484639727</v>
+        <v>199866.3919893415</v>
       </c>
       <c r="D4" t="n">
-        <v>214761.4484639727</v>
+        <v>199866.3919893415</v>
       </c>
       <c r="E4" t="n">
-        <v>80277.85946797876</v>
+        <v>101012.8540458319</v>
       </c>
       <c r="F4" t="n">
-        <v>80277.85946797879</v>
+        <v>101012.8540458318</v>
       </c>
       <c r="G4" t="n">
-        <v>101012.8540458319</v>
+        <v>101012.8540458318</v>
       </c>
       <c r="H4" t="n">
-        <v>101012.8540458319</v>
+        <v>101012.8540458318</v>
       </c>
       <c r="I4" t="n">
         <v>101012.8540458319</v>
@@ -26454,10 +26456,10 @@
         <v>101012.8540458318</v>
       </c>
       <c r="O4" t="n">
-        <v>80277.85946797876</v>
+        <v>101012.8540458318</v>
       </c>
       <c r="P4" t="n">
-        <v>80277.85946797876</v>
+        <v>101012.8540458319</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61680.71427022832</v>
+        <v>63041.22282216122</v>
       </c>
       <c r="C5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>55088.02981987962</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="F5" t="n">
-        <v>55088.02981987964</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26503,13 +26505,13 @@
         <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>55088.02981987961</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="P5" t="n">
-        <v>55088.02981987961</v>
+        <v>77750.06218842969</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>34886.25105660906</v>
+        <v>29541.59187065301</v>
       </c>
       <c r="C6" t="n">
-        <v>189511.9716747294</v>
+        <v>175234.6577085483</v>
       </c>
       <c r="D6" t="n">
-        <v>189511.9716747293</v>
+        <v>198641.4913821608</v>
       </c>
       <c r="E6" t="n">
-        <v>89382.04822324522</v>
+        <v>55122.04971905588</v>
       </c>
       <c r="F6" t="n">
-        <v>222145.716232847</v>
+        <v>270861.4062756965</v>
       </c>
       <c r="G6" t="n">
-        <v>168701.4861813864</v>
+        <v>270861.4062756964</v>
       </c>
       <c r="H6" t="n">
+        <v>270861.4062756965</v>
+      </c>
+      <c r="I6" t="n">
         <v>270861.4062756964</v>
       </c>
-      <c r="I6" t="n">
-        <v>270861.4062756962</v>
-      </c>
       <c r="J6" t="n">
-        <v>150138.8893329396</v>
+        <v>144284.1376954077</v>
       </c>
       <c r="K6" t="n">
-        <v>270861.4062756962</v>
+        <v>252214.8059186765</v>
       </c>
       <c r="L6" t="n">
-        <v>270861.4062756962</v>
+        <v>270861.4062756964</v>
       </c>
       <c r="M6" t="n">
-        <v>160052.0461665632</v>
+        <v>90797.53482052824</v>
       </c>
       <c r="N6" t="n">
         <v>270861.4062756965</v>
       </c>
       <c r="O6" t="n">
-        <v>222145.716232847</v>
+        <v>270861.4062756962</v>
       </c>
       <c r="P6" t="n">
-        <v>222145.716232847</v>
+        <v>270861.4062756961</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539674</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>906.0531220374937</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>906.0531220374941</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26823,13 +26825,13 @@
         <v>1278.783917572857</v>
       </c>
       <c r="N4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>906.0531220374936</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>906.0531220374936</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539674</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>72.45112196162677</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>444.6532162771595</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>372.7307955353627</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539674</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162677</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>444.6532162771595</v>
+        <v>722.5561044572628</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539674</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162677</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>444.6532162771595</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>372.7307955353627</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>146.140565967191</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>13.00889154689337</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,7 +27438,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27447,7 @@
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27534,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>115.5061580827398</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27588,10 +27590,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>214.6700336021668</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
@@ -27603,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>377.4802179710691</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
@@ -27625,7 +27627,7 @@
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27636,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27676,13 +27678,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>310.9404582913983</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,25 +27776,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,22 +27824,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>8.462143340781523</v>
+        <v>51.52561303414873</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27865,7 +27867,7 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
@@ -27907,19 +27909,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>174.2843823982938</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>342.9323154271054</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,16 +28061,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>147.9890084539413</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>19.611334796969</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28570,7 +28572,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28755,7 +28757,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>3.205021433435225e-12</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -34699,22 +34701,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539674</v>
       </c>
       <c r="L2" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>97.96403816098331</v>
       </c>
       <c r="N2" t="n">
-        <v>76.49136530850697</v>
+        <v>483.7766911539674</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>483.7766911539674</v>
       </c>
       <c r="P2" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,28 +34780,28 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>461.3999057603342</v>
+        <v>368.1052675669848</v>
       </c>
       <c r="L3" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539674</v>
       </c>
       <c r="M3" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539674</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>352.3878357835378</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>483.7766911539674</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34872,10 +34874,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>193.0123962598428</v>
       </c>
       <c r="Q4" t="n">
-        <v>104.4093672264672</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,25 +34938,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>443.4649875463285</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>533.7539620806206</v>
       </c>
       <c r="Q5" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35009,34 +35011,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="K6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>352.3878357835375</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35097,7 +35099,7 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M7" t="n">
         <v>395.137166636617</v>
@@ -35106,7 +35108,7 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O7" t="n">
-        <v>341.8101546884499</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P7" t="n">
         <v>293.5345574968697</v>
@@ -35170,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>461.3999057603342</v>
+        <v>73.06155854104185</v>
       </c>
       <c r="L8" t="n">
-        <v>77.19886752926243</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
@@ -35246,7 +35248,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -35255,22 +35257,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N9" t="n">
-        <v>435.2356237478841</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P9" t="n">
-        <v>461.3999057603342</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="Q9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35340,7 +35342,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N10" t="n">
-        <v>5.82435761961338</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O10" t="n">
         <v>359.0183117977405</v>
@@ -35413,13 +35415,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>906.0531220374937</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>267.053332433633</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
@@ -35428,7 +35430,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>270.9566418219343</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35486,16 +35488,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>654.0493568580272</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35644,25 +35646,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>906.0531220374941</v>
+        <v>361.4796159561459</v>
       </c>
       <c r="N14" t="n">
-        <v>906.0531220374941</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>80.33713509547934</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35729,16 +35731,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>845.2513212958648</v>
+        <v>760.3041339439037</v>
       </c>
       <c r="M15" t="n">
-        <v>83.23994392538597</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35881,22 +35883,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>722.7356646217162</v>
+        <v>462.773936363287</v>
       </c>
       <c r="L17" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>267.053332433633</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>715.433615311038</v>
@@ -35960,16 +35962,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>57.59993608192674</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>928.4912652212494</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -36051,7 +36053,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N19" t="n">
-        <v>381.3045564404434</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O19" t="n">
         <v>359.0183117977405</v>
@@ -36121,22 +36123,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>548.1076711799178</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>715.433615311038</v>
+        <v>587.9026025434059</v>
       </c>
       <c r="Q20" t="n">
         <v>460.6924035395789</v>
@@ -36194,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -36209,10 +36211,10 @@
         <v>1066.653068662672</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>752.782272366215</v>
       </c>
       <c r="O21" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36361,7 +36363,7 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
-        <v>286.0644100977806</v>
+        <v>404.8081827057627</v>
       </c>
       <c r="M23" t="n">
         <v>1014.430405473796</v>
@@ -36379,7 +36381,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,16 +36442,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M24" t="n">
-        <v>1066.653068662672</v>
+        <v>83.23994392538586</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>677.4563459795569</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36458,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>310.3818991832499</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
         <v>1014.430405473796</v>
@@ -36610,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>690.7922068925909</v>
       </c>
       <c r="Q26" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36829,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
-        <v>436.0509951211321</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
@@ -36850,10 +36852,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>19.53098502454951</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,22 +36919,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="N30" t="n">
-        <v>551.8435622166962</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P30" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37069,16 +37071,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>722.7356646217162</v>
+        <v>69.78487510406583</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>886.8993927061638</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
@@ -37087,7 +37089,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>118.7437726079824</v>
@@ -37142,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>499.553882840162</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37306,10 +37308,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>69.78487510406583</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>939.015199615431</v>
+        <v>659.5493944772218</v>
       </c>
       <c r="M35" t="n">
         <v>1014.430405473796</v>
@@ -37321,13 +37323,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37391,10 +37393,10 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>726.6390748562006</v>
       </c>
       <c r="N36" t="n">
-        <v>1083.681479230444</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37403,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>357.4788798574141</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>715.433615311038</v>
+        <v>540.8056218692396</v>
       </c>
       <c r="Q38" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,10 +37624,10 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37637,13 +37639,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>396.8624089123078</v>
+        <v>699.7421113697987</v>
       </c>
       <c r="Q39" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37783,13 +37785,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>811.4841868477985</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>906.0531220374936</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
@@ -37798,10 +37800,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>23.4342944128503</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>197.5373662309363</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>906.0531220374936</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>838.0562926047352</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38017,19 +38019,19 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>811.4841868477985</v>
       </c>
       <c r="M44" t="n">
-        <v>906.0531220374936</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>906.0531220374936</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>114.3621256483116</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
         <v>715.433615311038</v>
@@ -38090,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>838.0562926047355</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>906.0531220374936</v>
+        <v>241.6721949031147</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_7_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_7_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1611007.067138812</v>
+        <v>1610310.405933721</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11843801.51954497</v>
+        <v>11843801.51954496</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>612367.9462114755</v>
+        <v>612367.9462114756</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>341.5295878106627</v>
       </c>
       <c r="C2" t="n">
         <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>275.57660448643</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
         <v>20.87293999249374</v>
@@ -676,10 +676,10 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,19 +712,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
         <v>1.283897344658556</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>9.405053751853977</v>
       </c>
       <c r="C4" t="n">
-        <v>54.7466794071333</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
         <v>164.5944000087102</v>
@@ -870,7 +870,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
         <v>277.3826040146988</v>
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>38.16966267754562</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
         <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
         <v>420.8729399924937</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>101.7637429421853</v>
       </c>
     </row>
     <row r="6">
@@ -1059,7 +1059,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
         <v>164.546123788675</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -1113,13 +1113,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>188.6126445545042</v>
+        <v>54.98739250759311</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
         <v>421.717170453621</v>
@@ -1147,13 +1147,13 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>237.1359214906315</v>
       </c>
       <c r="W8" t="n">
-        <v>49.49512077555119</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -1293,7 +1293,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
         <v>161.683605144497</v>
@@ -1308,7 +1308,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -1341,25 +1341,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>259.2830179210824</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>23.04621311339642</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026577</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
@@ -1542,13 +1542,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>110.5098027557608</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>241.519198276654</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
@@ -1593,7 +1593,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1624,7 +1624,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407063</v>
       </c>
       <c r="I14" t="n">
         <v>34.5479025439635</v>
@@ -1669,7 +1669,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026577</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>102.1509188080621</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>224.2501910080086</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
         <v>277.3826040146988</v>
@@ -2013,13 +2013,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>20.30587612622681</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
@@ -2101,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396307</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026577</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
         <v>407.6027988439302</v>
@@ -2244,19 +2244,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
@@ -2301,7 +2301,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>90.41020405525629</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
@@ -2478,25 +2478,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>114.0767014514083</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>239.9808308639751</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2718,22 +2718,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>108.5787138564741</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>270.9555222691334</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2952,13 +2952,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
@@ -2967,10 +2967,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>23.68504153343146</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3009,7 +3009,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
@@ -3085,7 +3085,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U32" t="n">
-        <v>255.7713603095521</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V32" t="n">
         <v>353.914520725013</v>
@@ -3189,25 +3189,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3246,13 +3246,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>7.208108397807436</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T35" t="n">
         <v>218.7163152458132</v>
@@ -3429,19 +3429,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>10.42070586797278</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
@@ -3483,10 +3483,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
         <v>218.7163152458132</v>
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>19.13171203300003</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
@@ -3720,13 +3720,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
@@ -3748,7 +3748,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>421.717170453622</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
@@ -3760,7 +3760,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396356</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855911</v>
       </c>
       <c r="T41" t="n">
         <v>218.7163152458132</v>
@@ -3903,22 +3903,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>49.87597792716274</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3957,13 +3957,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>0.3483355295592605</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>415.649880648615</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>419.0596946068511</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
@@ -3994,10 +3994,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396355</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458144</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
         <v>255.7713603095518</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>160.9877840950855</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>784.5977247459055</v>
+        <v>456.8988997477843</v>
       </c>
       <c r="C2" t="n">
-        <v>761.7373987996097</v>
+        <v>434.0385738014885</v>
       </c>
       <c r="D2" t="n">
-        <v>338.4447779846099</v>
+        <v>414.7863570268929</v>
       </c>
       <c r="E2" t="n">
-        <v>60.0845714326604</v>
+        <v>392.8498212151545</v>
       </c>
       <c r="F2" t="n">
-        <v>39.00079366246469</v>
+        <v>371.7660434449588</v>
       </c>
       <c r="G2" t="n">
-        <v>38.70213529231739</v>
+        <v>371.4673850748114</v>
       </c>
       <c r="H2" t="n">
-        <v>38.70213529231739</v>
+        <v>73.59900654884623</v>
       </c>
       <c r="I2" t="n">
-        <v>38.70213529231739</v>
+        <v>38.70213529231745</v>
       </c>
       <c r="J2" t="n">
-        <v>401.3055941092129</v>
+        <v>401.305594109213</v>
       </c>
       <c r="K2" t="n">
-        <v>880.2445183516406</v>
+        <v>880.2445183516414</v>
       </c>
       <c r="L2" t="n">
-        <v>880.2445183516406</v>
+        <v>880.2445183516414</v>
       </c>
       <c r="M2" t="n">
-        <v>977.2289161310141</v>
+        <v>880.2445183516414</v>
       </c>
       <c r="N2" t="n">
-        <v>1456.167840373442</v>
+        <v>880.2445183516414</v>
       </c>
       <c r="O2" t="n">
-        <v>1935.106764615869</v>
+        <v>882.5260259873586</v>
       </c>
       <c r="P2" t="n">
-        <v>1935.106764615869</v>
+        <v>1361.464950229787</v>
       </c>
       <c r="Q2" t="n">
-        <v>1935.106764615869</v>
+        <v>1817.55042973397</v>
       </c>
       <c r="R2" t="n">
-        <v>1935.106764615869</v>
+        <v>1935.106764615873</v>
       </c>
       <c r="S2" t="n">
-        <v>1830.73947048901</v>
+        <v>1830.739470489013</v>
       </c>
       <c r="T2" t="n">
-        <v>1609.813899533643</v>
+        <v>1830.739470489013</v>
       </c>
       <c r="U2" t="n">
-        <v>1609.813899533643</v>
+        <v>1572.384561085425</v>
       </c>
       <c r="V2" t="n">
-        <v>1609.813899533643</v>
+        <v>1214.895146211675</v>
       </c>
       <c r="W2" t="n">
-        <v>1213.42254983399</v>
+        <v>1214.895146211675</v>
       </c>
       <c r="X2" t="n">
-        <v>1205.742955042141</v>
+        <v>803.175147379422</v>
       </c>
       <c r="Y2" t="n">
-        <v>1204.446089037436</v>
+        <v>801.8782813747164</v>
       </c>
     </row>
     <row r="3">
@@ -4391,46 +4391,46 @@
         <v>488.3197228412774</v>
       </c>
       <c r="D3" t="n">
-        <v>384.4797643565624</v>
+        <v>384.4797643565625</v>
       </c>
       <c r="E3" t="n">
-        <v>279.7778306294996</v>
+        <v>279.7778306294997</v>
       </c>
       <c r="F3" t="n">
-        <v>186.1320003124038</v>
+        <v>186.1320003124039</v>
       </c>
       <c r="G3" t="n">
-        <v>92.07822853000781</v>
+        <v>92.07822853000786</v>
       </c>
       <c r="H3" t="n">
-        <v>38.70213529231739</v>
+        <v>38.70213529231745</v>
       </c>
       <c r="I3" t="n">
-        <v>46.14877825422923</v>
+        <v>46.14877825422929</v>
       </c>
       <c r="J3" t="n">
-        <v>46.14877825422923</v>
+        <v>317.8462675338204</v>
       </c>
       <c r="K3" t="n">
-        <v>410.5729931455442</v>
+        <v>796.7851917762489</v>
       </c>
       <c r="L3" t="n">
-        <v>889.5119173879718</v>
+        <v>1275.724116018677</v>
       </c>
       <c r="M3" t="n">
-        <v>1368.4508416304</v>
+        <v>1286.431531545696</v>
       </c>
       <c r="N3" t="n">
-        <v>1368.4508416304</v>
+        <v>1286.431531545696</v>
       </c>
       <c r="O3" t="n">
-        <v>1368.4508416304</v>
+        <v>1286.431531545696</v>
       </c>
       <c r="P3" t="n">
-        <v>1847.389765872827</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="Q3" t="n">
-        <v>1847.389765872827</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="R3" t="n">
         <v>1847.389765872827</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>503.8236179184764</v>
+        <v>958.566484943325</v>
       </c>
       <c r="C4" t="n">
-        <v>448.5239417496549</v>
+        <v>786.593921822241</v>
       </c>
       <c r="D4" t="n">
-        <v>448.5239417496549</v>
+        <v>786.593921822241</v>
       </c>
       <c r="E4" t="n">
-        <v>448.5239417496549</v>
+        <v>620.3857159750945</v>
       </c>
       <c r="F4" t="n">
-        <v>448.5239417496549</v>
+        <v>448.523941749655</v>
       </c>
       <c r="G4" t="n">
-        <v>282.266972043887</v>
+        <v>282.2669720438871</v>
       </c>
       <c r="H4" t="n">
-        <v>138.4707035520414</v>
+        <v>138.4707035520415</v>
       </c>
       <c r="I4" t="n">
-        <v>38.70213529231739</v>
+        <v>38.70213529231745</v>
       </c>
       <c r="J4" t="n">
-        <v>38.70213529231739</v>
+        <v>38.70213529231745</v>
       </c>
       <c r="K4" t="n">
-        <v>265.2297364981546</v>
+        <v>165.7127968735012</v>
       </c>
       <c r="L4" t="n">
-        <v>619.9190577925754</v>
+        <v>520.402118167922</v>
       </c>
       <c r="M4" t="n">
-        <v>1011.104852762826</v>
+        <v>911.5879131381728</v>
       </c>
       <c r="N4" t="n">
-        <v>1388.596363638862</v>
+        <v>1289.079424014209</v>
       </c>
       <c r="O4" t="n">
-        <v>1744.024492318625</v>
+        <v>1644.507552693972</v>
       </c>
       <c r="P4" t="n">
-        <v>1935.106764615869</v>
+        <v>1935.106764615873</v>
       </c>
       <c r="Q4" t="n">
-        <v>1935.106764615869</v>
+        <v>1935.106764615873</v>
       </c>
       <c r="R4" t="n">
-        <v>1888.068151303043</v>
+        <v>1888.068151303046</v>
       </c>
       <c r="S4" t="n">
-        <v>1717.933103822178</v>
+        <v>1717.933103822181</v>
       </c>
       <c r="T4" t="n">
-        <v>1717.933103822178</v>
+        <v>1474.593756048081</v>
       </c>
       <c r="U4" t="n">
-        <v>1437.748655322482</v>
+        <v>1194.409307548385</v>
       </c>
       <c r="V4" t="n">
-        <v>1437.748655322482</v>
+        <v>1194.409307548385</v>
       </c>
       <c r="W4" t="n">
-        <v>1162.896251494995</v>
+        <v>1194.409307548385</v>
       </c>
       <c r="X4" t="n">
-        <v>920.3323549408</v>
+        <v>1194.409307548385</v>
       </c>
       <c r="Y4" t="n">
-        <v>693.989586630542</v>
+        <v>968.066539238127</v>
       </c>
     </row>
     <row r="5">
@@ -4549,7 +4549,7 @@
         <v>1354.087497153665</v>
       </c>
       <c r="D5" t="n">
-        <v>930.7948763386659</v>
+        <v>1334.83528037907</v>
       </c>
       <c r="E5" t="n">
         <v>908.8583405269275</v>
@@ -4573,46 +4573,46 @@
         <v>595.1637600336857</v>
       </c>
       <c r="L5" t="n">
-        <v>595.1637600336857</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="M5" t="n">
-        <v>595.1637600336857</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N5" t="n">
-        <v>1145.829295018124</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O5" t="n">
-        <v>1696.494830002562</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P5" t="n">
-        <v>2224.911252462377</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V5" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="W5" t="n">
-        <v>1828.519902762723</v>
+        <v>1503.227037680497</v>
       </c>
       <c r="X5" t="n">
-        <v>1820.840307970875</v>
+        <v>1495.547442888648</v>
       </c>
       <c r="Y5" t="n">
-        <v>1415.503037925765</v>
+        <v>1392.755783351087</v>
       </c>
     </row>
     <row r="6">
@@ -4646,22 +4646,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>201.1892506764427</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>201.1892506764427</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L6" t="n">
-        <v>201.1892506764427</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M6" t="n">
-        <v>751.8547856608809</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N6" t="n">
         <v>1302.520320645319</v>
       </c>
       <c r="O6" t="n">
-        <v>1853.185855629757</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P6" t="n">
         <v>1853.185855629757</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>792.5008004748155</v>
+        <v>645.7643351504313</v>
       </c>
       <c r="C7" t="n">
-        <v>620.5282373537315</v>
+        <v>473.7917720293473</v>
       </c>
       <c r="D7" t="n">
-        <v>620.5282373537315</v>
+        <v>310.474999156118</v>
       </c>
       <c r="E7" t="n">
-        <v>454.3200315065851</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="F7" t="n">
-        <v>454.3200315065851</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="G7" t="n">
-        <v>288.0630618008172</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H7" t="n">
         <v>144.2667933089716</v>
@@ -4761,16 +4761,16 @@
         <v>1484.213795394888</v>
       </c>
       <c r="V7" t="n">
-        <v>1484.213795394888</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W7" t="n">
-        <v>1209.361391567401</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X7" t="n">
-        <v>1018.843568785073</v>
+        <v>872.1071034606892</v>
       </c>
       <c r="Y7" t="n">
-        <v>792.5008004748155</v>
+        <v>645.7643351504313</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>938.0105478030285</v>
+        <v>1376.947823099961</v>
       </c>
       <c r="C8" t="n">
-        <v>915.1502218567327</v>
+        <v>950.0470931132614</v>
       </c>
       <c r="D8" t="n">
-        <v>491.857601041733</v>
+        <v>930.7948763386657</v>
       </c>
       <c r="E8" t="n">
-        <v>65.88066118959054</v>
+        <v>504.8179364865234</v>
       </c>
       <c r="F8" t="n">
-        <v>44.79688341939484</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G8" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
@@ -4807,22 +4807,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>116.829168004879</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L8" t="n">
-        <v>667.4947029893171</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M8" t="n">
-        <v>1218.160237973755</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="N8" t="n">
-        <v>1218.160237973755</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="O8" t="n">
-        <v>1768.825772958194</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P8" t="n">
-        <v>1768.825772958194</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q8" t="n">
         <v>2224.911252462377</v>
@@ -4831,25 +4831,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.911252462377</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V8" t="n">
-        <v>2224.911252462377</v>
+        <v>1401.732244147642</v>
       </c>
       <c r="W8" t="n">
-        <v>2174.916180971921</v>
+        <v>1401.732244147642</v>
       </c>
       <c r="X8" t="n">
-        <v>1763.196182139668</v>
+        <v>1394.052649355793</v>
       </c>
       <c r="Y8" t="n">
-        <v>1357.858912094558</v>
+        <v>1392.755783351087</v>
       </c>
     </row>
     <row r="9">
@@ -4889,22 +4889,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="L9" t="n">
-        <v>595.1637600336857</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M9" t="n">
-        <v>1145.829295018124</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="N9" t="n">
-        <v>1145.829295018124</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="O9" t="n">
-        <v>1696.494830002562</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P9" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>811.9105159605548</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C10" t="n">
-        <v>811.9105159605548</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D10" t="n">
-        <v>648.5937430873255</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>482.385537240179</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
-        <v>310.5237630147394</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>144.2667933089716</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
         <v>144.2667933089716</v>
@@ -4989,25 +4989,25 @@
         <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T10" t="n">
-        <v>2007.737591668684</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U10" t="n">
-        <v>2007.737591668684</v>
+        <v>1897.688190649853</v>
       </c>
       <c r="V10" t="n">
-        <v>1745.83555336456</v>
+        <v>1615.976723257882</v>
       </c>
       <c r="W10" t="n">
-        <v>1470.983149537073</v>
+        <v>1341.124319430395</v>
       </c>
       <c r="X10" t="n">
-        <v>1228.419252982878</v>
+        <v>1341.124319430395</v>
       </c>
       <c r="Y10" t="n">
-        <v>1002.07648467262</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C11" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D11" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E11" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F11" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G11" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H11" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I11" t="n">
         <v>102.3027134058285</v>
@@ -5047,7 +5047,7 @@
         <v>817.8110213813276</v>
       </c>
       <c r="L11" t="n">
-        <v>1747.436069000604</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M11" t="n">
         <v>2011.818868109901</v>
@@ -5080,13 +5080,13 @@
         <v>4173.998480931862</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X11" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y11" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="12">
@@ -5120,28 +5120,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J12" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K12" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L12" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M12" t="n">
-        <v>1021.509065974867</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N12" t="n">
-        <v>1021.509065974867</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O12" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P12" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q12" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R12" t="n">
         <v>1910.990343986338</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1085.715267670341</v>
+        <v>823.7398882488801</v>
       </c>
       <c r="C13" t="n">
-        <v>913.7427045492574</v>
+        <v>651.7673251277961</v>
       </c>
       <c r="D13" t="n">
-        <v>750.4259316760281</v>
+        <v>651.7673251277961</v>
       </c>
       <c r="E13" t="n">
-        <v>584.2177258288816</v>
+        <v>485.5591192806496</v>
       </c>
       <c r="F13" t="n">
-        <v>412.355951603442</v>
+        <v>313.69734505521</v>
       </c>
       <c r="G13" t="n">
-        <v>246.0989818976742</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H13" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I13" t="n">
         <v>102.3027134058285</v>
@@ -5226,25 +5226,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S13" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T13" t="n">
-        <v>2112.580693338092</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U13" t="n">
-        <v>1868.621907200057</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="V13" t="n">
-        <v>1586.910439808086</v>
+        <v>1757.664925652886</v>
       </c>
       <c r="W13" t="n">
-        <v>1312.058035980599</v>
+        <v>1482.812521825399</v>
       </c>
       <c r="X13" t="n">
-        <v>1312.058035980599</v>
+        <v>1240.248625271204</v>
       </c>
       <c r="Y13" t="n">
-        <v>1085.715267670341</v>
+        <v>1013.905856960946</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C14" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D14" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E14" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F14" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G14" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H14" t="n">
         <v>137.1995846623573</v>
@@ -5287,13 +5287,13 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>2467.904347614084</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N14" t="n">
-        <v>3444.155406100785</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O14" t="n">
-        <v>4289.300056251597</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P14" t="n">
         <v>4997.579335409525</v>
@@ -5317,13 +5317,13 @@
         <v>4173.998480931862</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X14" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J15" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K15" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L15" t="n">
-        <v>855.0038060102931</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M15" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="N15" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O15" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P15" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q15" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R15" t="n">
         <v>1910.990343986338</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>703.5067984699893</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C16" t="n">
-        <v>703.5067984699893</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="D16" t="n">
-        <v>540.1900255967601</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="E16" t="n">
-        <v>540.1900255967601</v>
+        <v>377.3472339020379</v>
       </c>
       <c r="F16" t="n">
-        <v>368.3282513713204</v>
+        <v>205.4854596765984</v>
       </c>
       <c r="G16" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H16" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I16" t="n">
         <v>102.3027134058285</v>
@@ -5460,28 +5460,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S16" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T16" t="n">
-        <v>2009.161783053596</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U16" t="n">
-        <v>1728.9773345539</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V16" t="n">
-        <v>1447.265867161929</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W16" t="n">
-        <v>1172.413463334442</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X16" t="n">
-        <v>929.8495667802473</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y16" t="n">
-        <v>703.5067984699893</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="17">
@@ -5518,16 +5518,16 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>923.0523692223782</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1852.677416841655</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M17" t="n">
-        <v>2856.963518260713</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N17" t="n">
-        <v>3833.214576747414</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O17" t="n">
         <v>3833.214576747414</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C18" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D18" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E18" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F18" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G18" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H18" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J18" t="n">
-        <v>3306.448039710919</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K18" t="n">
-        <v>3306.448039710919</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L18" t="n">
-        <v>3306.448039710919</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="M18" t="n">
-        <v>4225.654392279956</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="N18" t="n">
-        <v>4225.654392279956</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O18" t="n">
-        <v>5115.135670291427</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P18" t="n">
-        <v>5115.135670291427</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q18" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R18" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S18" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T18" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U18" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V18" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W18" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X18" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y18" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>756.1902889499656</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C19" t="n">
-        <v>584.2177258288816</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D19" t="n">
-        <v>584.2177258288816</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E19" t="n">
-        <v>584.2177258288816</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F19" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
         <v>102.3027134058285</v>
@@ -5697,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2235.67712750613</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T19" t="n">
-        <v>1992.33777973203</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U19" t="n">
-        <v>1971.826793745942</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V19" t="n">
-        <v>1690.115326353971</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W19" t="n">
-        <v>1415.262922526484</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X19" t="n">
-        <v>1172.699025972289</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y19" t="n">
-        <v>946.3562576620313</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5740,13 +5740,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
@@ -5761,19 +5761,19 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>3114.325629236558</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="N20" t="n">
-        <v>3114.325629236558</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O20" t="n">
-        <v>3959.47027938737</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
@@ -5788,7 +5788,7 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
         <v>3777.607131232208</v>
@@ -5828,28 +5828,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>109.7493563677404</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K21" t="n">
-        <v>109.7493563677404</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L21" t="n">
-        <v>109.7493563677404</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M21" t="n">
-        <v>1165.735894343786</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1680.682846292257</v>
       </c>
       <c r="Q21" t="n">
         <v>1910.990343986338</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>753.250092117427</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C22" t="n">
-        <v>581.277528996343</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D22" t="n">
-        <v>417.9607561231137</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E22" t="n">
-        <v>417.9607561231137</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F22" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
         <v>102.3027134058285</v>
@@ -5934,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T22" t="n">
-        <v>2065.542080025265</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U22" t="n">
-        <v>1785.357631525569</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V22" t="n">
-        <v>1503.646164133598</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W22" t="n">
-        <v>1412.322725693945</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X22" t="n">
-        <v>1169.758829139751</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y22" t="n">
-        <v>943.4160608294926</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="23">
@@ -5995,19 +5995,19 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1581.174581076928</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2585.460682495986</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N23" t="n">
-        <v>3561.711740982687</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O23" t="n">
-        <v>4406.8563911335</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q23" t="n">
         <v>5115.135670291427</v>
@@ -6068,28 +6068,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L24" t="n">
-        <v>939.1015214887346</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M24" t="n">
-        <v>1021.509065974867</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N24" t="n">
-        <v>1021.509065974867</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3797.843420773281</v>
+        <v>770.0572249530562</v>
       </c>
       <c r="C25" t="n">
-        <v>3682.614429408222</v>
+        <v>598.0846618319722</v>
       </c>
       <c r="D25" t="n">
-        <v>3682.614429408222</v>
+        <v>434.7678889587429</v>
       </c>
       <c r="E25" t="n">
-        <v>3516.406223561076</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="F25" t="n">
-        <v>3344.544449335636</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G25" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M25" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O25" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T25" t="n">
-        <v>4824.7577092045</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U25" t="n">
-        <v>4544.573260704805</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V25" t="n">
-        <v>4262.861793312833</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W25" t="n">
-        <v>3988.009389485347</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X25" t="n">
-        <v>3988.009389485347</v>
+        <v>960.2231936651219</v>
       </c>
       <c r="Y25" t="n">
-        <v>3988.009389485347</v>
+        <v>960.2231936651219</v>
       </c>
     </row>
     <row r="26">
@@ -6229,25 +6229,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>102.3027134058285</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L26" t="n">
-        <v>1031.927761025105</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M26" t="n">
-        <v>2036.213862444163</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N26" t="n">
-        <v>3012.464920930865</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O26" t="n">
-        <v>3857.609571081677</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P26" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6302,31 +6302,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M27" t="n">
-        <v>102.3027134058285</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="N27" t="n">
-        <v>1021.509065974867</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>778.6022263052665</v>
+        <v>1013.622061704626</v>
       </c>
       <c r="C28" t="n">
-        <v>606.6296631841825</v>
+        <v>841.6494985835419</v>
       </c>
       <c r="D28" t="n">
-        <v>606.6296631841825</v>
+        <v>678.3327257103126</v>
       </c>
       <c r="E28" t="n">
-        <v>440.421457337036</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="F28" t="n">
-        <v>268.5596831115964</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G28" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H28" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6408,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T28" t="n">
-        <v>1822.202732251165</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U28" t="n">
-        <v>1822.202732251165</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V28" t="n">
-        <v>1712.527263709272</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W28" t="n">
-        <v>1437.674859881785</v>
+        <v>1203.788030416692</v>
       </c>
       <c r="X28" t="n">
-        <v>1195.11096332759</v>
+        <v>1203.788030416692</v>
       </c>
       <c r="Y28" t="n">
-        <v>968.7681950173321</v>
+        <v>1203.788030416692</v>
       </c>
     </row>
     <row r="29">
@@ -6469,22 +6469,22 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>2110.0395278175</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M29" t="n">
-        <v>2110.0395278175</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N29" t="n">
-        <v>3086.290586304201</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O29" t="n">
-        <v>3931.435236455013</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
-        <v>4639.71451561294</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
-        <v>5095.799995117123</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6539,31 +6539,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M30" t="n">
-        <v>1021.509065974867</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N30" t="n">
-        <v>1021.509065974867</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>608.0932463474637</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>608.0932463474637</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>608.0932463474637</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>441.8850405003172</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>270.0232662748776</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>270.0232662748776</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>126.226997783032</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6645,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>1542.018283751469</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>1267.165879923982</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>1024.601983369787</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>798.2592150595294</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6688,13 +6688,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
@@ -6703,25 +6703,25 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>533.9931985757493</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1463.618246195026</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2467.904347614084</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="N32" t="n">
-        <v>3444.155406100785</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O32" t="n">
-        <v>4289.300056251597</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P32" t="n">
-        <v>4997.579335409525</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6779,28 +6779,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M33" t="n">
-        <v>821.6753975134684</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3845.931202281452</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>3845.931202281452</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>3682.614429408222</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>3516.406223561076</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>3344.544449335636</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M34" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N34" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O34" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P34" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>5068.0970569786</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>4824.7577092045</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>4544.573260704805</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>4544.573260704805</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>4269.720856877318</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>4262.439939303775</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>4036.097170993517</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6925,13 +6925,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
@@ -6943,16 +6943,16 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1833.368380730673</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2837.654482149731</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="N35" t="n">
-        <v>3813.905540636432</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O35" t="n">
-        <v>4659.050190787244</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P35" t="n">
         <v>4659.050190787244</v>
@@ -6964,10 +6964,10 @@
         <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C36" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D36" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E36" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F36" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G36" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H36" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J36" t="n">
-        <v>3306.448039710919</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K36" t="n">
-        <v>3306.448039710919</v>
+        <v>730.647150085061</v>
       </c>
       <c r="L36" t="n">
-        <v>3306.448039710919</v>
+        <v>730.647150085061</v>
       </c>
       <c r="M36" t="n">
-        <v>4025.820723818557</v>
+        <v>730.647150085061</v>
       </c>
       <c r="N36" t="n">
-        <v>5115.135670291427</v>
+        <v>730.647150085061</v>
       </c>
       <c r="O36" t="n">
-        <v>5115.135670291427</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P36" t="n">
-        <v>5115.135670291427</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q36" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R36" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S36" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T36" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U36" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V36" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W36" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X36" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y36" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3751.878227437044</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C37" t="n">
-        <v>3579.90566431596</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D37" t="n">
-        <v>3416.588891442731</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E37" t="n">
-        <v>3250.380685595584</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F37" t="n">
-        <v>3078.518911370144</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>3078.518911370144</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M37" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N37" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O37" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P37" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q37" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>5104.609704768222</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>4934.474657287357</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T37" t="n">
-        <v>4691.135309513257</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U37" t="n">
-        <v>4410.950861013562</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V37" t="n">
-        <v>4410.950861013562</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W37" t="n">
-        <v>4410.950861013562</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X37" t="n">
-        <v>4168.386964459367</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y37" t="n">
-        <v>3942.044196149109</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7162,13 +7162,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
@@ -7180,16 +7180,16 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1180.414480198223</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2184.700581617281</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N38" t="n">
-        <v>3160.951640103982</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O38" t="n">
-        <v>4006.096290254794</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
         <v>4541.493855905342</v>
@@ -7201,10 +7201,10 @@
         <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7259,22 +7259,22 @@
         <v>381.4468456473314</v>
       </c>
       <c r="L39" t="n">
-        <v>1218.245653730238</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M39" t="n">
-        <v>1218.245653730238</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N39" t="n">
-        <v>1218.245653730238</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="O39" t="n">
-        <v>1218.245653730238</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>878.3707945649905</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C40" t="n">
-        <v>706.3982314439065</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D40" t="n">
-        <v>706.3982314439065</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>540.1900255967601</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>368.3282513713204</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
@@ -7356,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2263.390779169462</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2093.255731688597</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T40" t="n">
-        <v>1849.916383914497</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U40" t="n">
-        <v>1569.731935414801</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V40" t="n">
-        <v>1569.731935414801</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W40" t="n">
-        <v>1294.879531587314</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X40" t="n">
-        <v>1294.879531587314</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y40" t="n">
-        <v>1068.536763277056</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C41" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D41" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E41" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G41" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H41" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I41" t="n">
         <v>102.3027134058285</v>
@@ -7417,10 +7417,10 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>1983.783825177544</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>2988.069926596602</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N41" t="n">
         <v>2988.069926596602</v>
@@ -7456,7 +7456,7 @@
         <v>3365.887132399956</v>
       </c>
       <c r="Y41" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C42" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D42" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E42" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F42" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H42" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>3313.894682672831</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J42" t="n">
-        <v>3313.894682672831</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K42" t="n">
-        <v>3509.456675241458</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L42" t="n">
-        <v>3509.456675241458</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M42" t="n">
-        <v>3509.456675241458</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N42" t="n">
-        <v>3509.456675241458</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O42" t="n">
-        <v>4398.937953252929</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P42" t="n">
-        <v>5115.135670291427</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q42" t="n">
-        <v>5115.135670291427</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R42" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S42" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T42" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U42" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V42" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W42" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X42" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y42" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>850.3052888313966</v>
+        <v>496.5168264363548</v>
       </c>
       <c r="C43" t="n">
-        <v>678.3327257103126</v>
+        <v>324.5442633152709</v>
       </c>
       <c r="D43" t="n">
-        <v>678.3327257103126</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E43" t="n">
-        <v>512.1245198631661</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F43" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G43" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H43" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I43" t="n">
         <v>102.3027134058285</v>
@@ -7578,43 +7578,43 @@
         <v>741.0109641302445</v>
       </c>
       <c r="M43" t="n">
-        <v>1132.196759100495</v>
+        <v>1132.196759100493</v>
       </c>
       <c r="N43" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976529</v>
       </c>
       <c r="O43" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656291</v>
       </c>
       <c r="P43" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578192</v>
       </c>
       <c r="Q43" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818954</v>
       </c>
       <c r="R43" t="n">
-        <v>2235.67712750613</v>
+        <v>2235.677127506127</v>
       </c>
       <c r="S43" t="n">
-        <v>2065.542080025265</v>
+        <v>2235.677127506127</v>
       </c>
       <c r="T43" t="n">
-        <v>1822.202732251165</v>
+        <v>1992.337779732027</v>
       </c>
       <c r="U43" t="n">
-        <v>1542.018283751469</v>
+        <v>1712.153331232332</v>
       </c>
       <c r="V43" t="n">
-        <v>1542.018283751469</v>
+        <v>1430.44186384036</v>
       </c>
       <c r="W43" t="n">
-        <v>1267.165879923982</v>
+        <v>1155.589460012873</v>
       </c>
       <c r="X43" t="n">
-        <v>1266.81402585372</v>
+        <v>913.0255634586784</v>
       </c>
       <c r="Y43" t="n">
-        <v>1040.471257543462</v>
+        <v>686.6827951484205</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C44" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D44" t="n">
         <v>1690.508147261616</v>
@@ -7639,10 +7639,10 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G44" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H44" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I44" t="n">
         <v>102.3027134058285</v>
@@ -7654,10 +7654,10 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>1983.783825177544</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>2988.069926596602</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N44" t="n">
         <v>2988.069926596602</v>
@@ -7678,22 +7678,22 @@
         <v>5010.768376164568</v>
       </c>
       <c r="T44" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U44" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W44" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X44" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y44" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>109.7493563677404</v>
       </c>
       <c r="J45" t="n">
-        <v>109.7493563677404</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K45" t="n">
-        <v>700.2342829360799</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L45" t="n">
-        <v>700.2342829360799</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M45" t="n">
-        <v>700.2342829360799</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N45" t="n">
-        <v>939.4897558901635</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="O45" t="n">
-        <v>1828.971033901635</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P45" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q45" t="n">
         <v>1828.971033901635</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>843.7708094800807</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C46" t="n">
-        <v>671.7982463589967</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D46" t="n">
-        <v>508.4814734857674</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E46" t="n">
-        <v>345.8675501573982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F46" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G46" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H46" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I46" t="n">
         <v>102.3027134058285</v>
@@ -7833,25 +7833,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T46" t="n">
-        <v>1869.241345563992</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U46" t="n">
-        <v>1869.241345563992</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V46" t="n">
-        <v>1587.529878172021</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W46" t="n">
-        <v>1312.677474344533</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X46" t="n">
-        <v>1070.113577790339</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y46" t="n">
-        <v>843.7708094800807</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
   </sheetData>
@@ -7981,28 +7981,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>519.5412919487767</v>
+        <v>519.5412919487775</v>
       </c>
       <c r="L2" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>135.3953010604151</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>521.0563139884134</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>521.1676505099915</v>
+        <v>39.69551252341517</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>521.3520529641994</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,16 +8057,16 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>390.5045014003181</v>
+        <v>506.1759249873015</v>
       </c>
       <c r="L3" t="n">
-        <v>506.2917778681969</v>
+        <v>506.2917778681977</v>
       </c>
       <c r="M3" t="n">
-        <v>506.8734716662954</v>
+        <v>33.91235175174049</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
@@ -8075,13 +8075,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>505.547532358796</v>
+        <v>505.5475323587968</v>
       </c>
       <c r="Q3" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8139,7 +8139,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>249.7804132464869</v>
+        <v>149.2582520094633</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8154,7 +8154,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>215.3931969178292</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
         <v>24.61956276478495</v>
@@ -8221,25 +8221,25 @@
         <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>548.8576414812763</v>
       </c>
       <c r="M5" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>571.3293238908518</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,25 +8294,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>178.8848775931265</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
-        <v>579.3245936279221</v>
+        <v>181.370543772121</v>
       </c>
       <c r="N6" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
         <v>22.7470382889785</v>
@@ -8455,7 +8455,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>108.8261593358512</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
         <v>594.539855548217</v>
@@ -8464,16 +8464,16 @@
         <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>571.0335849150666</v>
       </c>
       <c r="O8" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
         <v>35.03264989479647</v>
@@ -8537,25 +8537,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>21.34302821354166</v>
+        <v>184.1630016116738</v>
       </c>
       <c r="O9" t="n">
         <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
-        <v>180.0446044646217</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8695,10 +8695,10 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>977.3272420480539</v>
+        <v>229.9501690078907</v>
       </c>
       <c r="M11" t="n">
-        <v>304.4845953330648</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
         <v>1023.391803124043</v>
@@ -8768,31 +8768,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>951.5880457335786</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>921.6378271075471</v>
+        <v>427.5561602122188</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8935,7 +8935,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>398.9108788555778</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
         <v>1023.391803124043</v>
@@ -8944,7 +8944,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>753.0089771212694</v>
+        <v>100.0581876036193</v>
       </c>
       <c r="Q14" t="n">
         <v>36.12467460459804</v>
@@ -9002,19 +9002,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
-        <v>782.8192206581333</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M15" t="n">
-        <v>1089.749849175</v>
+        <v>43.54168314167958</v>
       </c>
       <c r="N15" t="n">
         <v>21.34302821354166</v>
@@ -9029,7 +9029,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9166,19 +9166,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>498.5385371580963</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>977.3272420480539</v>
+        <v>878.1144544646206</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
         <v>753.0089771212694</v>
@@ -9242,28 +9242,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>509.7471451685728</v>
       </c>
       <c r="M18" t="n">
-        <v>951.5880457335774</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9409,7 +9409,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>1043.074428213578</v>
       </c>
       <c r="N20" t="n">
         <v>37.27962283444602</v>
@@ -9418,13 +9418,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>625.4779643536372</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,31 +9476,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>774.1253005797566</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>255.3808743436059</v>
       </c>
       <c r="R21" t="n">
         <v>23.67291939414415</v>
@@ -9643,10 +9643,10 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
-        <v>443.1202251383856</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>56.96224792398087</v>
       </c>
       <c r="N23" t="n">
         <v>1023.391803124043</v>
@@ -9658,7 +9658,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
         <v>35.03264989479647</v>
@@ -9716,31 +9716,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
-        <v>867.7664080100944</v>
+        <v>426.8993572042261</v>
       </c>
       <c r="M24" t="n">
-        <v>106.3367244377138</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,7 +9877,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
         <v>977.3272420480539</v>
@@ -9892,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>728.3675687028222</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,25 +9950,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M27" t="n">
-        <v>23.09678051232798</v>
+        <v>43.54168314167958</v>
       </c>
       <c r="N27" t="n">
-        <v>949.8342934347922</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
         <v>21.77084120482866</v>
@@ -9977,7 +9977,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10117,10 +10117,10 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M29" t="n">
-        <v>37.43126289943181</v>
+        <v>877.2336749314295</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10135,7 +10135,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>54.56363491934598</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,34 +10187,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M30" t="n">
-        <v>951.5880457335786</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,16 +10351,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>105.5494758988752</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>1043.074428213578</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
@@ -10369,10 +10369,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>426.1551116948253</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10591,19 +10591,19 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>697.8614369098447</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>1043.074428213578</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
         <v>496.8170781441769</v>
@@ -10664,28 +10664,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>382.6486756511529</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>749.7358553685286</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10828,19 +10828,19 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O38" t="n">
-        <v>891.0724241548241</v>
+        <v>763.5414113871921</v>
       </c>
       <c r="P38" t="n">
-        <v>578.380983679471</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
         <v>496.8170781441769</v>
@@ -10907,7 +10907,7 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
         <v>23.09678051232798</v>
@@ -10916,16 +10916,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>293.0516819980064</v>
       </c>
       <c r="P39" t="n">
-        <v>721.5129525746274</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11065,13 +11065,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>849.7962292804214</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>37.27962283444602</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
@@ -11138,10 +11138,10 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>219.9366000642696</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
@@ -11153,16 +11153,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11302,13 +11302,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>849.7962292804214</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
@@ -11375,10 +11375,10 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
@@ -11387,16 +11387,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>263.0152231166563</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>921.6378271075471</v>
+        <v>293.0516819980064</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
         <v>106.5207073584907</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>54.08459725294935</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>35.86340573804472</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>62.44348120064807</v>
       </c>
       <c r="H16" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>16.65576328835036</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23901,13 +23901,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>257.076727888472</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>181.6936757339558</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>56.17613603846489</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0.1574267246778049</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>170.3156388615773</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>1.148357520078719</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -24840,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>75.08584104369532</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>232.9301491908455</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G37" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>36.1475213117258</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25371,10 +25371,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>27.43651514669855</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>111.8076272173343</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>239.7899220590937</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>3.558339693589488</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>613679.1772676535</v>
+        <v>613679.1772676536</v>
       </c>
     </row>
     <row r="4">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>634141.6767664633</v>
+        <v>634141.6767664634</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>634141.6767664632</v>
+        <v>634141.6767664633</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>634141.6767664633</v>
+        <v>634141.6767664634</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>634141.6767664633</v>
+        <v>634141.6767664634</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>634141.6767664634</v>
+        <v>634141.6767664633</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>634141.6767664633</v>
+        <v>634141.6767664632</v>
       </c>
     </row>
     <row r="16">
@@ -26322,40 +26322,40 @@
         <v>465954.1344089304</v>
       </c>
       <c r="E2" t="n">
-        <v>449624.322509958</v>
+        <v>449624.3225099579</v>
       </c>
       <c r="F2" t="n">
-        <v>449624.3225099581</v>
+        <v>449624.3225099579</v>
       </c>
       <c r="G2" t="n">
-        <v>449624.3225099579</v>
+        <v>449624.3225099578</v>
       </c>
       <c r="H2" t="n">
         <v>449624.3225099579</v>
       </c>
       <c r="I2" t="n">
+        <v>449624.3225099578</v>
+      </c>
+      <c r="J2" t="n">
         <v>449624.3225099579</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>449624.3225099578</v>
-      </c>
-      <c r="K2" t="n">
-        <v>449624.3225099579</v>
       </c>
       <c r="L2" t="n">
         <v>449624.3225099579</v>
       </c>
       <c r="M2" t="n">
-        <v>449624.3225099575</v>
+        <v>449624.322509958</v>
       </c>
       <c r="N2" t="n">
-        <v>449624.322509958</v>
+        <v>449624.3225099578</v>
       </c>
       <c r="O2" t="n">
-        <v>449624.3225099577</v>
+        <v>449624.3225099579</v>
       </c>
       <c r="P2" t="n">
-        <v>449624.3225099577</v>
+        <v>449624.3225099578</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162124.696069591</v>
+        <v>162124.6960695913</v>
       </c>
       <c r="C3" t="n">
-        <v>23406.83367361243</v>
+        <v>23406.83367361217</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>126577.2685802886</v>
+        <v>126577.2685802888</v>
       </c>
       <c r="K3" t="n">
-        <v>18646.60035701996</v>
+        <v>18646.60035701975</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26401,7 +26401,7 @@
         <v>180063.8714551677</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.681686290653206e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>211246.6236465253</v>
+        <v>211246.6236465252</v>
       </c>
       <c r="C4" t="n">
         <v>199866.3919893415</v>
@@ -26429,10 +26429,10 @@
         <v>101012.8540458319</v>
       </c>
       <c r="F4" t="n">
-        <v>101012.8540458318</v>
+        <v>101012.8540458319</v>
       </c>
       <c r="G4" t="n">
-        <v>101012.8540458318</v>
+        <v>101012.8540458319</v>
       </c>
       <c r="H4" t="n">
         <v>101012.8540458318</v>
@@ -26441,16 +26441,16 @@
         <v>101012.8540458319</v>
       </c>
       <c r="J4" t="n">
-        <v>101012.8540458319</v>
+        <v>101012.8540458318</v>
       </c>
       <c r="K4" t="n">
         <v>101012.8540458319</v>
       </c>
       <c r="L4" t="n">
-        <v>101012.8540458319</v>
+        <v>101012.8540458318</v>
       </c>
       <c r="M4" t="n">
-        <v>101012.8540458319</v>
+        <v>101012.8540458318</v>
       </c>
       <c r="N4" t="n">
         <v>101012.8540458318</v>
@@ -26459,7 +26459,7 @@
         <v>101012.8540458318</v>
       </c>
       <c r="P4" t="n">
-        <v>101012.8540458319</v>
+        <v>101012.8540458318</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63041.22282216122</v>
+        <v>63041.22282216126</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29541.59187065301</v>
+        <v>29541.59187065282</v>
       </c>
       <c r="C6" t="n">
-        <v>175234.6577085483</v>
+        <v>175234.6577085486</v>
       </c>
       <c r="D6" t="n">
         <v>198641.4913821608</v>
       </c>
       <c r="E6" t="n">
-        <v>55122.04971905588</v>
+        <v>55071.01905687146</v>
       </c>
       <c r="F6" t="n">
-        <v>270861.4062756965</v>
+        <v>270810.375613512</v>
       </c>
       <c r="G6" t="n">
-        <v>270861.4062756964</v>
+        <v>270810.3756135119</v>
       </c>
       <c r="H6" t="n">
-        <v>270861.4062756965</v>
+        <v>270810.3756135121</v>
       </c>
       <c r="I6" t="n">
-        <v>270861.4062756964</v>
+        <v>270810.375613512</v>
       </c>
       <c r="J6" t="n">
-        <v>144284.1376954077</v>
+        <v>144233.1070332232</v>
       </c>
       <c r="K6" t="n">
-        <v>252214.8059186765</v>
+        <v>252163.7752564922</v>
       </c>
       <c r="L6" t="n">
-        <v>270861.4062756964</v>
+        <v>270810.3756135121</v>
       </c>
       <c r="M6" t="n">
-        <v>90797.53482052824</v>
+        <v>90746.50415834454</v>
       </c>
       <c r="N6" t="n">
-        <v>270861.4062756965</v>
+        <v>270810.3756135119</v>
       </c>
       <c r="O6" t="n">
-        <v>270861.4062756962</v>
+        <v>270810.3756135122</v>
       </c>
       <c r="P6" t="n">
-        <v>270861.4062756961</v>
+        <v>270810.375613512</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539674</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -26943,7 +26943,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.352107863316507e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539674</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="C4" t="n">
-        <v>72.45112196162677</v>
+        <v>72.45112196162597</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539674</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162677</v>
+        <v>72.45112196162597</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572628</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539674</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162677</v>
+        <v>72.45112196162597</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>74.12029283795198</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>146.140565967191</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27396,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,19 +27432,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>178.859255273091</v>
       </c>
       <c r="C4" t="n">
-        <v>115.5061580827398</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27590,7 +27590,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27599,10 +27599,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>377.4802179710691</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>255.7713603095518</v>
@@ -27684,7 +27684,7 @@
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>299.5201544024733</v>
       </c>
     </row>
     <row r="6">
@@ -27779,7 +27779,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,10 +27788,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27833,13 +27833,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>51.52561303414873</v>
+        <v>185.1508650810598</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
         <v>400</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>116.7785992343815</v>
       </c>
       <c r="W8" t="n">
-        <v>342.9323154271054</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28013,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28028,7 +28028,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28061,25 +28061,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>19.611334796969</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>201.033127513759</v>
       </c>
     </row>
     <row r="11">
@@ -30036,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>-9.379164112033322e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30459,16 +30459,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>-5.631541210371732e-14</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>-5.631541210371732e-14</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -30480,7 +30480,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>-5.631541210371732e-14</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,7 +30510,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>-5.631541210371732e-14</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30650,7 +30650,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>-2.625500899702974e-12</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -30696,13 +30696,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>-5.631541210371732e-14</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>-1.406753334510446e-12</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -30714,10 +30714,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>-5.631541210371732e-14</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>-5.631541210371732e-14</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -34701,28 +34701,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>483.7766911539674</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>97.96403816098331</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>483.7766911539674</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>483.7766911539674</v>
+        <v>2.304553167391073</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,16 +34777,16 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>368.1052675669848</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="L3" t="n">
-        <v>483.7766911539674</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="M3" t="n">
-        <v>483.7766911539674</v>
+        <v>10.81557123941251</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34795,13 +34795,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>483.7766911539674</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>228.8157587937749</v>
+        <v>128.2935975567513</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34874,7 +34874,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>193.0123962598428</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34941,25 +34941,25 @@
         <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>510.5455990486534</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="O5" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="P5" t="n">
-        <v>533.7539620806206</v>
-      </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>556.2278131155941</v>
+      </c>
+      <c r="L6" t="n">
+        <v>556.2278131155941</v>
+      </c>
+      <c r="M6" t="n">
         <v>158.2737632597931</v>
       </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="N6" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="O6" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35175,7 +35175,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>73.06155854104185</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
         <v>556.2278131155941</v>
@@ -35184,16 +35184,16 @@
         <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>533.7539620806206</v>
       </c>
       <c r="O8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35257,25 +35257,25 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>162.8199733981322</v>
       </c>
       <c r="O9" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="P9" t="n">
-        <v>158.2737632597931</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35415,10 +35415,10 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>939.015199615431</v>
+        <v>191.6381265752678</v>
       </c>
       <c r="M11" t="n">
-        <v>267.053332433633</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
         <v>986.1121802895968</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>898.4659373853249</v>
+        <v>404.3842704899966</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35655,7 +35655,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>361.4796159561459</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
         <v>986.1121802895968</v>
@@ -35664,7 +35664,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>715.433615311038</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35722,19 +35722,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
-        <v>760.3041339439037</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M15" t="n">
-        <v>1066.653068662672</v>
+        <v>20.4449026293516</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35749,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35886,19 +35886,19 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>462.773936363287</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>939.015199615431</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
         <v>715.433615311038</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>487.2320584543432</v>
       </c>
       <c r="M18" t="n">
-        <v>928.4912652212494</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36129,7 +36129,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>1005.643165314146</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -36138,13 +36138,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>587.9026025434059</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>752.782272366215</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>232.6338360546274</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36363,10 +36363,10 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
-        <v>404.8081827057627</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>19.53098502454905</v>
       </c>
       <c r="N23" t="n">
         <v>986.1121802895968</v>
@@ -36378,7 +36378,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
-        <v>845.2513212958648</v>
+        <v>404.3842704899966</v>
       </c>
       <c r="M24" t="n">
-        <v>83.23994392538586</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
         <v>939.015199615431</v>
@@ -36612,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>690.7922068925909</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>20.4449026293516</v>
       </c>
       <c r="N27" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36697,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36837,10 +36837,10 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
@@ -36855,7 +36855,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>19.53098502454951</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M30" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37071,16 +37071,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>69.78487510406583</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>1005.643165314146</v>
       </c>
       <c r="N32" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
@@ -37089,10 +37089,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>404.3842704899966</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37311,19 +37311,19 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>659.5493944772218</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>1005.643165314146</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
         <v>460.6924035395789</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>360.2494418178196</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>726.6390748562006</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37548,19 +37548,19 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>853.6814647988001</v>
+        <v>726.1504520311679</v>
       </c>
       <c r="P38" t="n">
-        <v>540.8056218692396</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
         <v>460.6924035395789</v>
@@ -37627,7 +37627,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37636,16 +37636,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="P39" t="n">
-        <v>699.7421113697987</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37785,13 +37785,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>811.4841868477985</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
@@ -37858,10 +37858,10 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>197.5373662309363</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37873,16 +37873,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37946,7 +37946,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M43" t="n">
-        <v>395.137166636617</v>
+        <v>395.1371666366144</v>
       </c>
       <c r="N43" t="n">
         <v>381.3045564404402</v>
@@ -38022,13 +38022,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>811.4841868477985</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
@@ -38095,10 +38095,10 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38107,16 +38107,16 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>241.6721949031147</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>898.4659373853249</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
         <v>82.84778796434657</v>
